--- a/outputs-HGR-r202/g__Bifidobacterium.xlsx
+++ b/outputs-HGR-r202/g__Bifidobacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
@@ -894,60 +894,60 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT23346.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0462113720911484</v>
+        <v>0.03130420810755723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1284102477174819</v>
+        <v>0.07978172257860577</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007105480434448776</v>
+        <v>0.006423262080208956</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1284102477174819</v>
+        <v>0.07978172257860577</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1284102477174819</v>
+        <v>0.07978172257860577</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1284102477174819</v>
+        <v>0.07978172257860577</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007702378191249495</v>
+        <v>0.007020978864890589</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008681813502329293</v>
+        <v>0.01640969741541917</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00926014874354187</v>
+        <v>0.008535923510624696</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1284102477174819</v>
+        <v>0.07978172257860577</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01136223395224378</v>
+        <v>0.01043942182186785</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02323228453824742</v>
+        <v>0.02666625189889203</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2372873245876813</v>
+        <v>0.48786803931874</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00710572537170001</v>
+        <v>0.00642360408877068</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2372873245876813</v>
+        <v>0.48786803931874</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -956,60 +956,60 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28721.fa</t>
+          <t>even_MAG-GUT23723.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0856534302526417</v>
+        <v>0.0462113720911484</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08420206200061717</v>
+        <v>0.1284102477174819</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006433672542588855</v>
+        <v>0.007105480434448776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08420206200061717</v>
+        <v>0.1284102477174819</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08420206200061717</v>
+        <v>0.1284102477174819</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08420206200061717</v>
+        <v>0.1284102477174819</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007032539895577469</v>
+        <v>0.007702378191249495</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006509262464053597</v>
+        <v>0.008681813502329293</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008068695874288122</v>
+        <v>0.00926014874354187</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08420206200061717</v>
+        <v>0.1284102477174819</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02038417485199915</v>
+        <v>0.01136223395224378</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02366190801380788</v>
+        <v>0.02323228453824742</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4148109562129849</v>
+        <v>0.2372873245876813</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006435049888972416</v>
+        <v>0.00710572537170001</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4148109562129849</v>
+        <v>0.2372873245876813</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1018,60 +1018,60 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT26586.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1412708472149201</v>
+        <v>0.1198168555922364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1148261039557424</v>
+        <v>0.07039718012441668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00679592137229691</v>
+        <v>0.006055534102207849</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1148261039557424</v>
+        <v>0.07039718012441668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1148261039557424</v>
+        <v>0.07039718012441668</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1148261039557424</v>
+        <v>0.07039718012441668</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007381246060686629</v>
+        <v>0.006674960437090855</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007043903488574871</v>
+        <v>0.006593471065434407</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009310008943906684</v>
+        <v>0.007168118076058811</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1148261039557424</v>
+        <v>0.07039718012441668</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01292517745921761</v>
+        <v>0.01617786564442572</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03333514670455937</v>
+        <v>0.0474858539245106</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2010112397873732</v>
+        <v>0.4319843089285682</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006795989189752651</v>
+        <v>0.006057131607383779</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2010112397873732</v>
+        <v>0.4319843089285682</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1080,60 +1080,60 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36138.fa</t>
+          <t>even_MAG-GUT28721.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04251855644383192</v>
+        <v>0.0856534302526417</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1526952360029721</v>
+        <v>0.08420206200061717</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007016207406472461</v>
+        <v>0.006433672542588855</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1526952360029721</v>
+        <v>0.08420206200061717</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1526952360029721</v>
+        <v>0.08420206200061717</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1526952360029721</v>
+        <v>0.08420206200061717</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007689404485299331</v>
+        <v>0.007032539895577469</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007537647010238378</v>
+        <v>0.006509262464053597</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03627416378002678</v>
+        <v>0.008068695874288122</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1526952360029721</v>
+        <v>0.08420206200061717</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01275821888631257</v>
+        <v>0.02038417485199915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06646836992988746</v>
+        <v>0.02366190801380788</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04924501388584144</v>
+        <v>0.4148109562129849</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007016238157229006</v>
+        <v>0.006435049888972416</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1526952360029721</v>
+        <v>0.4148109562129849</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1142,60 +1142,60 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37090.fa</t>
+          <t>even_MAG-GUT28738.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2412321370268823</v>
+        <v>0.1412708472149201</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1202452014545132</v>
+        <v>0.1148261039557424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.006849749411369266</v>
+        <v>0.00679592137229691</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1202452014545132</v>
+        <v>0.1148261039557424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1202452014545132</v>
+        <v>0.1148261039557424</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1202452014545132</v>
+        <v>0.1148261039557424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00743061802954677</v>
+        <v>0.007381246060686629</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006962409467208369</v>
+        <v>0.007043903488574871</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01043395010393135</v>
+        <v>0.009310008943906684</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1202452014545132</v>
+        <v>0.1148261039557424</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01762465394414373</v>
+        <v>0.01292517745921761</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02901929424179345</v>
+        <v>0.03333514670455937</v>
       </c>
       <c r="N12" t="n">
-        <v>0.07237140613847631</v>
+        <v>0.2010112397873732</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00684977436408242</v>
+        <v>0.006795989189752651</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2412321370268823</v>
+        <v>0.2010112397873732</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1204,60 +1204,60 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT36138.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03135403129177699</v>
+        <v>0.04251855644383192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1355210628677277</v>
+        <v>0.1526952360029721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007062721266951111</v>
+        <v>0.007016207406472461</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1355210628677277</v>
+        <v>0.1526952360029721</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1355210628677277</v>
+        <v>0.1526952360029721</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1355210628677277</v>
+        <v>0.1526952360029721</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007653865667218326</v>
+        <v>0.007689404485299331</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01976796194970196</v>
+        <v>0.007537647010238378</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01049756933326973</v>
+        <v>0.03627416378002678</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1355210628677277</v>
+        <v>0.1526952360029721</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01130358391601901</v>
+        <v>0.01275821888631257</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01967479488310098</v>
+        <v>0.06646836992988746</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2080172289747285</v>
+        <v>0.04924501388584144</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007062928378594731</v>
+        <v>0.007016238157229006</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2080172289747285</v>
+        <v>0.1526952360029721</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1266,60 +1266,60 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT37090.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03818783857843451</v>
+        <v>0.2412321370268823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1453495249325601</v>
+        <v>0.1202452014545132</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007120633424668264</v>
+        <v>0.006849749411369266</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1453495249325601</v>
+        <v>0.1202452014545132</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1453495249325601</v>
+        <v>0.1202452014545132</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1453495249325601</v>
+        <v>0.1202452014545132</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00769917018575566</v>
+        <v>0.00743061802954677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01238850441288501</v>
+        <v>0.006962409467208369</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01535256979759716</v>
+        <v>0.01043395010393135</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1453495249325601</v>
+        <v>0.1202452014545132</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01068274473860209</v>
+        <v>0.01762465394414373</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02352119663584945</v>
+        <v>0.02901929424179345</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1511790124145824</v>
+        <v>0.07237140613847631</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0071207051488247</v>
+        <v>0.00684977436408242</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1511790124145824</v>
+        <v>0.2412321370268823</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1328,60 +1328,60 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT408.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02778733489442088</v>
+        <v>0.03135403129177699</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09273562740578183</v>
+        <v>0.1355210628677277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006615859156865033</v>
+        <v>0.007062721266951111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09273562740578183</v>
+        <v>0.1355210628677277</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09273562740578183</v>
+        <v>0.1355210628677277</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09273562740578183</v>
+        <v>0.1355210628677277</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007214618538334006</v>
+        <v>0.007653865667218326</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03049117166908023</v>
+        <v>0.01976796194970196</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008055281087613369</v>
+        <v>0.01049756933326973</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09273562740578183</v>
+        <v>0.1355210628677277</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01035402014954508</v>
+        <v>0.01130358391601901</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01860054677569151</v>
+        <v>0.01967479488310098</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4205868608478617</v>
+        <v>0.2080172289747285</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006616169851678842</v>
+        <v>0.007062928378594731</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4205868608478617</v>
+        <v>0.2080172289747285</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1390,60 +1390,60 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT409.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02875841901861134</v>
+        <v>0.03818783857843451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08143495961249139</v>
+        <v>0.1453495249325601</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006504196699542645</v>
+        <v>0.007120633424668264</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08143495961249139</v>
+        <v>0.1453495249325601</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08143495961249139</v>
+        <v>0.1453495249325601</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08143495961249139</v>
+        <v>0.1453495249325601</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007101255963503445</v>
+        <v>0.00769917018575566</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01303642164799671</v>
+        <v>0.01238850441288501</v>
       </c>
       <c r="J16" t="n">
-        <v>0.009458447204293764</v>
+        <v>0.01535256979759716</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08143495961249139</v>
+        <v>0.1453495249325601</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01063968464694321</v>
+        <v>0.01068274473860209</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02507577272729944</v>
+        <v>0.02352119663584945</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4857465428718781</v>
+        <v>0.1511790124145824</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006504461157474259</v>
+        <v>0.0071207051488247</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4857465428718781</v>
+        <v>0.1511790124145824</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1452,60 +1452,60 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT412.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03442365354654242</v>
+        <v>0.02778733489442088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0934373973809033</v>
+        <v>0.09273562740578183</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006699166841893402</v>
+        <v>0.006615859156865033</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0934373973809033</v>
+        <v>0.09273562740578183</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0934373973809033</v>
+        <v>0.09273562740578183</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0934373973809033</v>
+        <v>0.09273562740578183</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007305056548079574</v>
+        <v>0.007214618538334006</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009934344993234819</v>
+        <v>0.03049117166908023</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008927134103219683</v>
+        <v>0.008055281087613369</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0934373973809033</v>
+        <v>0.09273562740578183</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01103892917720752</v>
+        <v>0.01035402014954508</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02830390331621584</v>
+        <v>0.01860054677569151</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4194811777421955</v>
+        <v>0.4205868608478617</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006699646826894844</v>
+        <v>0.006616169851678842</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4194811777421955</v>
+        <v>0.4205868608478617</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1514,60 +1514,60 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT418.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05697861097793485</v>
+        <v>0.02875841901861134</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1405716325670679</v>
+        <v>0.08143495961249139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006974703623710703</v>
+        <v>0.006504196699542645</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1405716325670679</v>
+        <v>0.08143495961249139</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1405716325670679</v>
+        <v>0.08143495961249139</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1405716325670679</v>
+        <v>0.08143495961249139</v>
       </c>
       <c r="H18" t="n">
-        <v>0.007556214114421471</v>
+        <v>0.007101255963503445</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02036011330633616</v>
+        <v>0.01303642164799671</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0125657504578259</v>
+        <v>0.009458447204293764</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1405716325670679</v>
+        <v>0.08143495961249139</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01013978236452198</v>
+        <v>0.01063968464694321</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02303075744084853</v>
+        <v>0.02507577272729944</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1525611672197064</v>
+        <v>0.4857465428718781</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006974737659354499</v>
+        <v>0.006504461157474259</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1525611672197064</v>
+        <v>0.4857465428718781</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1576,60 +1576,60 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT420.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02918747682135955</v>
+        <v>0.03442365354654242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08823081059712168</v>
+        <v>0.0934373973809033</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006249878036749668</v>
+        <v>0.006699166841893402</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08823081059712168</v>
+        <v>0.0934373973809033</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08823081059712168</v>
+        <v>0.0934373973809033</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08823081059712168</v>
+        <v>0.0934373973809033</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006832493728269017</v>
+        <v>0.007305056548079574</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09241946577316414</v>
+        <v>0.009934344993234819</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009905708981295492</v>
+        <v>0.008927134103219683</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08823081059712168</v>
+        <v>0.0934373973809033</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009047085225753863</v>
+        <v>0.01103892917720752</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03081172483416635</v>
+        <v>0.02830390331621584</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3681421301061856</v>
+        <v>0.4194811777421955</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006249983507447847</v>
+        <v>0.006699646826894844</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3681421301061856</v>
+        <v>0.4194811777421955</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1638,60 +1638,60 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT421.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04113361544110167</v>
+        <v>0.05697861097793485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1134476601010802</v>
+        <v>0.1405716325670679</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006735127914887842</v>
+        <v>0.006974703623710703</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1134476601010802</v>
+        <v>0.1405716325670679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1134476601010802</v>
+        <v>0.1405716325670679</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1134476601010802</v>
+        <v>0.1405716325670679</v>
       </c>
       <c r="H20" t="n">
-        <v>0.007316486593305173</v>
+        <v>0.007556214114421471</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02125381678483901</v>
+        <v>0.02036011330633616</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01187638701138679</v>
+        <v>0.0125657504578259</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1134476601010802</v>
+        <v>0.1405716325670679</v>
       </c>
       <c r="L20" t="n">
-        <v>0.009947750221013388</v>
+        <v>0.01013978236452198</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02493440327961666</v>
+        <v>0.02303075744084853</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3028289229267923</v>
+        <v>0.1525611672197064</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006735189321656058</v>
+        <v>0.006974737659354499</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3028289229267923</v>
+        <v>0.1525611672197064</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1700,60 +1700,60 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT422.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06466938588676518</v>
+        <v>0.02918747682135955</v>
       </c>
       <c r="C21" t="n">
-        <v>0.141598171343739</v>
+        <v>0.08823081059712168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007045682867682858</v>
+        <v>0.006249878036749668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.141598171343739</v>
+        <v>0.08823081059712168</v>
       </c>
       <c r="F21" t="n">
-        <v>0.141598171343739</v>
+        <v>0.08823081059712168</v>
       </c>
       <c r="G21" t="n">
-        <v>0.141598171343739</v>
+        <v>0.08823081059712168</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007636314937255007</v>
+        <v>0.006832493728269017</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01462977699520128</v>
+        <v>0.09241946577316414</v>
       </c>
       <c r="J21" t="n">
-        <v>0.009732895258288479</v>
+        <v>0.009905708981295492</v>
       </c>
       <c r="K21" t="n">
-        <v>0.141598171343739</v>
+        <v>0.08823081059712168</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01103380374473883</v>
+        <v>0.009047085225753863</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02738206258400018</v>
+        <v>0.03081172483416635</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1428334830703514</v>
+        <v>0.3681421301061856</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007045737937021743</v>
+        <v>0.006249983507447847</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1428334830703514</v>
+        <v>0.3681421301061856</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1762,60 +1762,60 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT423.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04407495996050807</v>
+        <v>0.04113361544110167</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1185965654112471</v>
+        <v>0.1134476601010802</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007029588148910346</v>
+        <v>0.006735127914887842</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1185965654112471</v>
+        <v>0.1134476601010802</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1185965654112471</v>
+        <v>0.1134476601010802</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1185965654112471</v>
+        <v>0.1134476601010802</v>
       </c>
       <c r="H22" t="n">
-        <v>0.007635486930283298</v>
+        <v>0.007316486593305173</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008110588301132742</v>
+        <v>0.02125381678483901</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01024347146446867</v>
+        <v>0.01187638701138679</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1185965654112471</v>
+        <v>0.1134476601010802</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01083676844140087</v>
+        <v>0.009947750221013388</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0216834576971289</v>
+        <v>0.02493440327961666</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2903730788670479</v>
+        <v>0.3028289229267923</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007029773132883699</v>
+        <v>0.006735189321656058</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2903730788670479</v>
+        <v>0.3028289229267923</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1824,60 +1824,60 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT425.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04310299965749751</v>
+        <v>0.06466938588676518</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1293821487286072</v>
+        <v>0.141598171343739</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006798580475730981</v>
+        <v>0.007045682867682858</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1293821487286072</v>
+        <v>0.141598171343739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1293821487286072</v>
+        <v>0.141598171343739</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1293821487286072</v>
+        <v>0.141598171343739</v>
       </c>
       <c r="H23" t="n">
-        <v>0.007402904930026947</v>
+        <v>0.007636314937255007</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02479745001458535</v>
+        <v>0.01462977699520128</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0137280451649745</v>
+        <v>0.009732895258288479</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1293821487286072</v>
+        <v>0.141598171343739</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01026260628169563</v>
+        <v>0.01103380374473883</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02864447024528477</v>
+        <v>0.02738206258400018</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2115535090141157</v>
+        <v>0.1428334830703514</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006798690573052494</v>
+        <v>0.007045737937021743</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2115535090141157</v>
+        <v>0.1428334830703514</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1886,60 +1886,60 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT429.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03141036817480511</v>
+        <v>0.04407495996050807</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1384972132126478</v>
+        <v>0.1185965654112471</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00709658478852421</v>
+        <v>0.007029588148910346</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1384972132126478</v>
+        <v>0.1185965654112471</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1384972132126478</v>
+        <v>0.1185965654112471</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1384972132126478</v>
+        <v>0.1185965654112471</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007690997672619185</v>
+        <v>0.007635486930283298</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01374734781001966</v>
+        <v>0.008110588301132742</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01359858861070939</v>
+        <v>0.01024347146446867</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1384972132126478</v>
+        <v>0.1185965654112471</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01043425763843152</v>
+        <v>0.01083676844140087</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02303424869659268</v>
+        <v>0.0216834576971289</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1934048377868084</v>
+        <v>0.2903730788670479</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007096702758250749</v>
+        <v>0.007029773132883699</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1934048377868084</v>
+        <v>0.2903730788670479</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1948,60 +1948,60 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT430.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0566531588363498</v>
+        <v>0.04310299965749751</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1440805959171756</v>
+        <v>0.1293821487286072</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007191363263926576</v>
+        <v>0.006798580475730981</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1440805959171756</v>
+        <v>0.1293821487286072</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1440805959171756</v>
+        <v>0.1293821487286072</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1440805959171756</v>
+        <v>0.1293821487286072</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007795790032955448</v>
+        <v>0.007402904930026947</v>
       </c>
       <c r="I25" t="n">
-        <v>0.009432211323482617</v>
+        <v>0.02479745001458535</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01253761604305631</v>
+        <v>0.0137280451649745</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1440805959171756</v>
+        <v>0.1293821487286072</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01074193318806734</v>
+        <v>0.01026260628169563</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01985103628292163</v>
+        <v>0.02864447024528477</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1482024840458251</v>
+        <v>0.2115535090141157</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007191427397536853</v>
+        <v>0.006798690573052494</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1482024840458251</v>
+        <v>0.2115535090141157</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2010,60 +2010,60 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT431.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04278838691733548</v>
+        <v>0.03141036817480511</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1398846886926315</v>
+        <v>0.1384972132126478</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007106460876109738</v>
+        <v>0.00709658478852421</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1398846886926315</v>
+        <v>0.1384972132126478</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1398846886926315</v>
+        <v>0.1384972132126478</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1398846886926315</v>
+        <v>0.1384972132126478</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007704886029794427</v>
+        <v>0.007690997672619185</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009707428833724403</v>
+        <v>0.01374734781001966</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01714575164128135</v>
+        <v>0.01359858861070939</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1398846886926315</v>
+        <v>0.1384972132126478</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01100615288581685</v>
+        <v>0.01043425763843152</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01984278185423935</v>
+        <v>0.02303424869659268</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1781681170068045</v>
+        <v>0.1934048377868084</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007106590491736807</v>
+        <v>0.007096702758250749</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1781681170068045</v>
+        <v>0.1934048377868084</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2072,60 +2072,60 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT432.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03211698714766409</v>
+        <v>0.0566531588363498</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1391212289077023</v>
+        <v>0.1440805959171756</v>
       </c>
       <c r="D27" t="n">
-        <v>0.006952389528626276</v>
+        <v>0.007191363263926576</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1391212289077023</v>
+        <v>0.1440805959171756</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1391212289077023</v>
+        <v>0.1440805959171756</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1391212289077023</v>
+        <v>0.1440805959171756</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007561576106430235</v>
+        <v>0.007795790032955448</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04035183775971959</v>
+        <v>0.009432211323482617</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01014557087011088</v>
+        <v>0.01253761604305631</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1391212289077023</v>
+        <v>0.1440805959171756</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01084081739440284</v>
+        <v>0.01074193318806734</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02322993304211649</v>
+        <v>0.01985103628292163</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1662421233502368</v>
+        <v>0.1482024840458251</v>
       </c>
       <c r="O27" t="n">
-        <v>0.006952620262181152</v>
+        <v>0.007191427397536853</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1662421233502368</v>
+        <v>0.1482024840458251</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2134,60 +2134,60 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT433.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02910240201402104</v>
+        <v>0.04278838691733548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0918357331647589</v>
+        <v>0.1398846886926315</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006669944784575826</v>
+        <v>0.007106460876109738</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0918357331647589</v>
+        <v>0.1398846886926315</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0918357331647589</v>
+        <v>0.1398846886926315</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0918357331647589</v>
+        <v>0.1398846886926315</v>
       </c>
       <c r="H28" t="n">
-        <v>0.007282259686548204</v>
+        <v>0.007704886029794427</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01180504591121197</v>
+        <v>0.009707428833724403</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008987499201387044</v>
+        <v>0.01714575164128135</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0918357331647589</v>
+        <v>0.1398846886926315</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01105102159169286</v>
+        <v>0.01100615288581685</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02787221295517218</v>
+        <v>0.01984278185423935</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4313803699315182</v>
+        <v>0.1781681170068045</v>
       </c>
       <c r="O28" t="n">
-        <v>0.006670578100078105</v>
+        <v>0.007106590491736807</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4313803699315182</v>
+        <v>0.1781681170068045</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2196,60 +2196,60 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT435.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03117352450676543</v>
+        <v>0.03211698714766409</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1106025313272381</v>
+        <v>0.1391212289077023</v>
       </c>
       <c r="D29" t="n">
-        <v>0.006844574063145288</v>
+        <v>0.006952389528626276</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1106025313272381</v>
+        <v>0.1391212289077023</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1106025313272381</v>
+        <v>0.1391212289077023</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1106025313272381</v>
+        <v>0.1391212289077023</v>
       </c>
       <c r="H29" t="n">
-        <v>0.007450199197929468</v>
+        <v>0.007561576106430235</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02077686823493007</v>
+        <v>0.04035183775971959</v>
       </c>
       <c r="J29" t="n">
-        <v>0.009095645670747405</v>
+        <v>0.01014557087011088</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1106025313272381</v>
+        <v>0.1391212289077023</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01061366236276901</v>
+        <v>0.01084081739440284</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01995740539405488</v>
+        <v>0.02322993304211649</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3342304102139002</v>
+        <v>0.1662421233502368</v>
       </c>
       <c r="O29" t="n">
-        <v>0.006845053719567676</v>
+        <v>0.006952620262181152</v>
       </c>
       <c r="P29" t="n">
-        <v>0.3342304102139002</v>
+        <v>0.1662421233502368</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2258,60 +2258,60 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT43623.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04368082631130916</v>
+        <v>0.02910240201402104</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1414696951216373</v>
+        <v>0.0918357331647589</v>
       </c>
       <c r="D30" t="n">
-        <v>0.007037140849392085</v>
+        <v>0.006669944784575826</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1414696951216373</v>
+        <v>0.0918357331647589</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1414696951216373</v>
+        <v>0.0918357331647589</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1414696951216373</v>
+        <v>0.0918357331647589</v>
       </c>
       <c r="H30" t="n">
-        <v>0.007627585283085697</v>
+        <v>0.007282259686548204</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01595575291335997</v>
+        <v>0.01180504591121197</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01477991876632431</v>
+        <v>0.008987499201387044</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1414696951216373</v>
+        <v>0.0918357331647589</v>
       </c>
       <c r="L30" t="n">
-        <v>0.009712679124785229</v>
+        <v>0.01105102159169286</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0235147969909111</v>
+        <v>0.02787221295517218</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1633056484196258</v>
+        <v>0.4313803699315182</v>
       </c>
       <c r="O30" t="n">
-        <v>0.007037175733020006</v>
+        <v>0.006670578100078105</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1633056484196258</v>
+        <v>0.4313803699315182</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2320,122 +2320,122 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04549470764406453</v>
+        <v>0.03961524381617074</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1190386124731611</v>
+        <v>0.04360560450245565</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00694880846621649</v>
+        <v>0.005576538536649665</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1190386124731611</v>
+        <v>0.04360560450245565</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1190386124731611</v>
+        <v>0.04360560450245565</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1190386124731611</v>
+        <v>0.04360560450245565</v>
       </c>
       <c r="H31" t="n">
-        <v>0.007551376450685384</v>
+        <v>0.00618496596008746</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00879622518610784</v>
+        <v>0.006103361555874447</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01276503026422958</v>
+        <v>0.006721928827525333</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1190386124731611</v>
+        <v>0.04360560450245565</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01043530077671852</v>
+        <v>0.009526817701282978</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02411691134038193</v>
+        <v>0.02969834243580843</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2817495274064891</v>
+        <v>0.6729674910863793</v>
       </c>
       <c r="O31" t="n">
-        <v>0.006949050099301246</v>
+        <v>0.005577287567943567</v>
       </c>
       <c r="P31" t="n">
-        <v>0.2817495274064891</v>
+        <v>0.6729674910863793</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT43934.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03035313845154888</v>
+        <v>0.03117352450676543</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1078065468401272</v>
+        <v>0.1106025313272381</v>
       </c>
       <c r="D32" t="n">
-        <v>0.007016332303723254</v>
+        <v>0.006844574063145288</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1078065468401272</v>
+        <v>0.1106025313272381</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1078065468401272</v>
+        <v>0.1106025313272381</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1078065468401272</v>
+        <v>0.1106025313272381</v>
       </c>
       <c r="H32" t="n">
-        <v>0.007641798091084572</v>
+        <v>0.007450199197929468</v>
       </c>
       <c r="I32" t="n">
-        <v>0.008970319513244078</v>
+        <v>0.02077686823493007</v>
       </c>
       <c r="J32" t="n">
-        <v>0.007950227423288181</v>
+        <v>0.009095645670747405</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1078065468401272</v>
+        <v>0.1106025313272381</v>
       </c>
       <c r="L32" t="n">
-        <v>0.01142727791656013</v>
+        <v>0.01061366236276901</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01988663063251693</v>
+        <v>0.01995740539405488</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3607040056171402</v>
+        <v>0.3342304102139002</v>
       </c>
       <c r="O32" t="n">
-        <v>0.00701753585025779</v>
+        <v>0.006845053719567676</v>
       </c>
       <c r="P32" t="n">
-        <v>0.3607040056171402</v>
+        <v>0.3342304102139002</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2444,60 +2444,60 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44961.fa</t>
+          <t>even_MAG-GUT444.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06904949467563404</v>
+        <v>0.04368082631130916</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1480355501047949</v>
+        <v>0.1414696951216373</v>
       </c>
       <c r="D33" t="n">
-        <v>0.007008306748251777</v>
+        <v>0.007037140849392085</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1480355501047949</v>
+        <v>0.1414696951216373</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1480355501047949</v>
+        <v>0.1414696951216373</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1480355501047949</v>
+        <v>0.1414696951216373</v>
       </c>
       <c r="H33" t="n">
-        <v>0.007634038629481416</v>
+        <v>0.007627585283085697</v>
       </c>
       <c r="I33" t="n">
-        <v>0.007683426346519166</v>
+        <v>0.01595575291335997</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01814713825914826</v>
+        <v>0.01477991876632431</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1480355501047949</v>
+        <v>0.1414696951216373</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01285936469159703</v>
+        <v>0.009712679124785229</v>
       </c>
       <c r="M33" t="n">
-        <v>0.05584219873257874</v>
+        <v>0.0235147969909111</v>
       </c>
       <c r="N33" t="n">
-        <v>0.07458988561692999</v>
+        <v>0.1633056484196258</v>
       </c>
       <c r="O33" t="n">
-        <v>0.007008395775884822</v>
+        <v>0.007037175733020006</v>
       </c>
       <c r="P33" t="n">
-        <v>0.1480355501047949</v>
+        <v>0.1633056484196258</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -2506,60 +2506,60 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT445.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03554545443903301</v>
+        <v>0.04549470764406453</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1297072833513067</v>
+        <v>0.1190386124731611</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007081404961526404</v>
+        <v>0.00694880846621649</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1297072833513067</v>
+        <v>0.1190386124731611</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1297072833513067</v>
+        <v>0.1190386124731611</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1297072833513067</v>
+        <v>0.1190386124731611</v>
       </c>
       <c r="H34" t="n">
-        <v>0.007659123531579799</v>
+        <v>0.007551376450685384</v>
       </c>
       <c r="I34" t="n">
-        <v>0.008396403017840304</v>
+        <v>0.00879622518610784</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01412701622981594</v>
+        <v>0.01276503026422958</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1297072833513067</v>
+        <v>0.1190386124731611</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01045597967945926</v>
+        <v>0.01043530077671852</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02454083762652993</v>
+        <v>0.02411691134038193</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2365758827886919</v>
+        <v>0.2817495274064891</v>
       </c>
       <c r="O34" t="n">
-        <v>0.007081480968989792</v>
+        <v>0.006949050099301246</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2365758827886919</v>
+        <v>0.2817495274064891</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -2568,122 +2568,122 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.03109289796706444</v>
+        <v>0.03697973246890133</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1197405926570585</v>
+        <v>0.03238259637514126</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006909850962953137</v>
+        <v>0.004956641724857489</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1197405926570585</v>
+        <v>0.03238259637514126</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1197405926570585</v>
+        <v>0.03238259637514126</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1197405926570585</v>
+        <v>0.03238259637514126</v>
       </c>
       <c r="H35" t="n">
-        <v>0.007497965917656201</v>
+        <v>0.005555527923966908</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0191242674647065</v>
+        <v>0.005310561013310846</v>
       </c>
       <c r="J35" t="n">
-        <v>0.009773324831728016</v>
+        <v>0.005092325523612807</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1197405926570585</v>
+        <v>0.03238259637514126</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01040194142117526</v>
+        <v>0.02646059769094671</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02418409990735858</v>
+        <v>0.01252029162443548</v>
       </c>
       <c r="N35" t="n">
-        <v>0.285402661655077</v>
+        <v>0.7362484701134859</v>
       </c>
       <c r="O35" t="n">
-        <v>0.006910026586988453</v>
+        <v>0.004962870040776197</v>
       </c>
       <c r="P35" t="n">
-        <v>0.285402661655077</v>
+        <v>0.7362484701134859</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03065359576827913</v>
+        <v>0.03035313845154888</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1043460230892567</v>
+        <v>0.1078065468401272</v>
       </c>
       <c r="D36" t="n">
-        <v>0.006507709792651451</v>
+        <v>0.007016332303723254</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1043460230892567</v>
+        <v>0.1078065468401272</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1043460230892567</v>
+        <v>0.1078065468401272</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1043460230892567</v>
+        <v>0.1078065468401272</v>
       </c>
       <c r="H36" t="n">
-        <v>0.007101412745514469</v>
+        <v>0.007641798091084572</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06585194644166077</v>
+        <v>0.008970319513244078</v>
       </c>
       <c r="J36" t="n">
-        <v>0.009196174136407038</v>
+        <v>0.007950227423288181</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1043460230892567</v>
+        <v>0.1078065468401272</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01006323680217508</v>
+        <v>0.01142727791656013</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03033824164129372</v>
+        <v>0.01988663063251693</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3120496565395216</v>
+        <v>0.3607040056171402</v>
       </c>
       <c r="O36" t="n">
-        <v>0.006507910686212895</v>
+        <v>0.00701753585025779</v>
       </c>
       <c r="P36" t="n">
-        <v>0.3120496565395216</v>
+        <v>0.3607040056171402</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2692,122 +2692,122 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.04759586604471957</v>
+        <v>0.05373122906991621</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1411823634701807</v>
+        <v>0.05653819342364724</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006908253290879877</v>
+        <v>0.005869391801545847</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1411823634701807</v>
+        <v>0.05653819342364724</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1411823634701807</v>
+        <v>0.05653819342364724</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1411823634701807</v>
+        <v>0.05653819342364724</v>
       </c>
       <c r="H37" t="n">
-        <v>0.007479510399470343</v>
+        <v>0.006433249339044223</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02677066990035504</v>
+        <v>0.005977745801021937</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01467804701622602</v>
+        <v>0.007066059527580978</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1411823634701807</v>
+        <v>0.05653819342364724</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01008535638192714</v>
+        <v>0.01563997263311977</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02461307711074661</v>
+        <v>0.03800467940846084</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1490491258225108</v>
+        <v>0.5787170869046242</v>
       </c>
       <c r="O37" t="n">
-        <v>0.006908276682260995</v>
+        <v>0.005869618396449678</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1490491258225108</v>
+        <v>0.5787170869046242</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT44961.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03858796748204903</v>
+        <v>0.06904949467563404</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1096581410371936</v>
+        <v>0.1480355501047949</v>
       </c>
       <c r="D38" t="n">
-        <v>0.006707677995741368</v>
+        <v>0.007008306748251777</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1096581410371936</v>
+        <v>0.1480355501047949</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1096581410371936</v>
+        <v>0.1480355501047949</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1096581410371936</v>
+        <v>0.1480355501047949</v>
       </c>
       <c r="H38" t="n">
-        <v>0.007297512844068706</v>
+        <v>0.007634038629481416</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02324159148573579</v>
+        <v>0.007683426346519166</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01069513504492346</v>
+        <v>0.01814713825914826</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1096581410371936</v>
+        <v>0.1480355501047949</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01008829446573014</v>
+        <v>0.01285936469159703</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02465756408922232</v>
+        <v>0.05584219873257874</v>
       </c>
       <c r="N38" t="n">
-        <v>0.3237257953969328</v>
+        <v>0.07458988561692999</v>
       </c>
       <c r="O38" t="n">
-        <v>0.00670775600962843</v>
+        <v>0.007008395775884822</v>
       </c>
       <c r="P38" t="n">
-        <v>0.3237257953969328</v>
+        <v>0.1480355501047949</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2816,60 +2816,60 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT450.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.088702789110746</v>
+        <v>0.03554545443903301</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07753280544112416</v>
+        <v>0.1297072833513067</v>
       </c>
       <c r="D39" t="n">
-        <v>0.006362393870464727</v>
+        <v>0.007081404961526404</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07753280544112416</v>
+        <v>0.1297072833513067</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07753280544112416</v>
+        <v>0.1297072833513067</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07753280544112416</v>
+        <v>0.1297072833513067</v>
       </c>
       <c r="H39" t="n">
-        <v>0.006950856502630976</v>
+        <v>0.007659123531579799</v>
       </c>
       <c r="I39" t="n">
-        <v>0.006496599260594692</v>
+        <v>0.008396403017840304</v>
       </c>
       <c r="J39" t="n">
-        <v>0.007188783188259664</v>
+        <v>0.01412701622981594</v>
       </c>
       <c r="K39" t="n">
-        <v>0.07753280544112416</v>
+        <v>0.1297072833513067</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01736512383162494</v>
+        <v>0.01045597967945926</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02427043519678001</v>
+        <v>0.02454083762652993</v>
       </c>
       <c r="N39" t="n">
-        <v>0.4486360967932837</v>
+        <v>0.2365758827886919</v>
       </c>
       <c r="O39" t="n">
-        <v>0.006362895039994409</v>
+        <v>0.007081480968989792</v>
       </c>
       <c r="P39" t="n">
-        <v>0.4486360967932837</v>
+        <v>0.2365758827886919</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2878,60 +2878,60 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46159.fa</t>
+          <t>even_MAG-GUT452.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04691906699632388</v>
+        <v>0.03109289796706444</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1530725625292826</v>
+        <v>0.1197405926570585</v>
       </c>
       <c r="D40" t="n">
-        <v>0.007026368487328994</v>
+        <v>0.006909850962953137</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1530725625292826</v>
+        <v>0.1197405926570585</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1530725625292826</v>
+        <v>0.1197405926570585</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1530725625292826</v>
+        <v>0.1197405926570585</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007706743650924053</v>
+        <v>0.007497965917656201</v>
       </c>
       <c r="I40" t="n">
-        <v>0.007359721377082764</v>
+        <v>0.0191242674647065</v>
       </c>
       <c r="J40" t="n">
-        <v>0.05155589024780049</v>
+        <v>0.009773324831728016</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1530725625292826</v>
+        <v>0.1197405926570585</v>
       </c>
       <c r="L40" t="n">
-        <v>0.01260794956131753</v>
+        <v>0.01040194142117526</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05964651059851912</v>
+        <v>0.02418409990735858</v>
       </c>
       <c r="N40" t="n">
-        <v>0.03478854314044155</v>
+        <v>0.285402661655077</v>
       </c>
       <c r="O40" t="n">
-        <v>0.007026393293848416</v>
+        <v>0.006910026586988453</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1530725625292826</v>
+        <v>0.285402661655077</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2940,60 +2940,60 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT453.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03242026838338887</v>
+        <v>0.03065359576827913</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1096853826931525</v>
+        <v>0.1043460230892567</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006851458091560379</v>
+        <v>0.006507709792651451</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1096853826931525</v>
+        <v>0.1043460230892567</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1096853826931525</v>
+        <v>0.1043460230892567</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1096853826931525</v>
+        <v>0.1043460230892567</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007448859990983934</v>
+        <v>0.007101412745514469</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01565895989886761</v>
+        <v>0.06585194644166077</v>
       </c>
       <c r="J41" t="n">
-        <v>0.009145178675360167</v>
+        <v>0.009196174136407038</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1096853826931525</v>
+        <v>0.1043460230892567</v>
       </c>
       <c r="L41" t="n">
-        <v>0.01022946345355741</v>
+        <v>0.01006323680217508</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02464477789594411</v>
+        <v>0.03033824164129372</v>
       </c>
       <c r="N41" t="n">
-        <v>0.3383224829393767</v>
+        <v>0.3120496565395216</v>
       </c>
       <c r="O41" t="n">
-        <v>0.006851637205198084</v>
+        <v>0.006507910686212895</v>
       </c>
       <c r="P41" t="n">
-        <v>0.3383224829393767</v>
+        <v>0.3120496565395216</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3002,60 +3002,60 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.03836968301898175</v>
+        <v>0.04759586604471957</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1368231210366798</v>
+        <v>0.1411823634701807</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006914324626301389</v>
+        <v>0.006908253290879877</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1368231210366798</v>
+        <v>0.1411823634701807</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1368231210366798</v>
+        <v>0.1411823634701807</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1368231210366798</v>
+        <v>0.1411823634701807</v>
       </c>
       <c r="H42" t="n">
-        <v>0.007484038287243265</v>
+        <v>0.007479510399470343</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01854522298894366</v>
+        <v>0.02677066990035504</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01777828610263064</v>
+        <v>0.01467804701622602</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1368231210366798</v>
+        <v>0.1411823634701807</v>
       </c>
       <c r="L42" t="n">
-        <v>0.009608602865768699</v>
+        <v>0.01008535638192714</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02764016716106982</v>
+        <v>0.02461307711074661</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1826297128497034</v>
+        <v>0.1490491258225108</v>
       </c>
       <c r="O42" t="n">
-        <v>0.006914356915958329</v>
+        <v>0.006908276682260995</v>
       </c>
       <c r="P42" t="n">
-        <v>0.1826297128497034</v>
+        <v>0.1490491258225108</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3064,60 +3064,60 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT457.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04671337692284267</v>
+        <v>0.03858796748204903</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1451196087126065</v>
+        <v>0.1096581410371936</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007158438871766165</v>
+        <v>0.006707677995741368</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1451196087126065</v>
+        <v>0.1096581410371936</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1451196087126065</v>
+        <v>0.1096581410371936</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1451196087126065</v>
+        <v>0.1096581410371936</v>
       </c>
       <c r="H43" t="n">
-        <v>0.007771306216339265</v>
+        <v>0.007297512844068706</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01110342845882863</v>
+        <v>0.02324159148573579</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01173387681228133</v>
+        <v>0.01069513504492346</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1451196087126065</v>
+        <v>0.1096581410371936</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01049774582781209</v>
+        <v>0.01008829446573014</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02582320501118958</v>
+        <v>0.02465756408922232</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1464418793053644</v>
+        <v>0.3237257953969328</v>
       </c>
       <c r="O43" t="n">
-        <v>0.00715869901054364</v>
+        <v>0.00670775600962843</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1464418793053644</v>
+        <v>0.3237257953969328</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3126,60 +3126,60 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT4577.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.03578485960275665</v>
+        <v>0.088702789110746</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1173640609689945</v>
+        <v>0.07753280544112416</v>
       </c>
       <c r="D44" t="n">
-        <v>0.006615117009120071</v>
+        <v>0.006362393870464727</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1173640609689945</v>
+        <v>0.07753280544112416</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1173640609689945</v>
+        <v>0.07753280544112416</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1173640609689945</v>
+        <v>0.07753280544112416</v>
       </c>
       <c r="H44" t="n">
-        <v>0.007201551653093587</v>
+        <v>0.006950856502630976</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05356854837286832</v>
+        <v>0.006496599260594692</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01327023698778025</v>
+        <v>0.007188783188259664</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1173640609689945</v>
+        <v>0.07753280544112416</v>
       </c>
       <c r="L44" t="n">
-        <v>0.009440795736376743</v>
+        <v>0.01736512383162494</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02702492469438741</v>
+        <v>0.02427043519678001</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2536584563004122</v>
+        <v>0.4486360967932837</v>
       </c>
       <c r="O44" t="n">
-        <v>0.006615204798232152</v>
+        <v>0.006362895039994409</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2536584563004122</v>
+        <v>0.4486360967932837</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3188,60 +3188,60 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT45829.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.04450949943753887</v>
+        <v>0.04774503426294547</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1324167080773051</v>
+        <v>0.1107646276764541</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006581975167182027</v>
+        <v>0.006837108619165283</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1324167080773051</v>
+        <v>0.1107646276764541</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1324167080773051</v>
+        <v>0.1107646276764541</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1324167080773051</v>
+        <v>0.1107646276764541</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007172401650866384</v>
+        <v>0.007430296054008052</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06609855104631623</v>
+        <v>0.008582136858886496</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02233599749467379</v>
+        <v>0.01104319680528744</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1324167080773051</v>
+        <v>0.1107646276764541</v>
       </c>
       <c r="L45" t="n">
-        <v>0.009321277246983764</v>
+        <v>0.01140245312942738</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03369120833852506</v>
+        <v>0.0286433564331229</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1416235232638733</v>
+        <v>0.3176559744423573</v>
       </c>
       <c r="O45" t="n">
-        <v>0.006582025967515279</v>
+        <v>0.006837305012529219</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1416235232638733</v>
+        <v>0.3176559744423573</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3250,60 +3250,60 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46719.fa</t>
+          <t>even_MAG-GUT459.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.04120907099608139</v>
+        <v>0.02838002790264418</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1499421302665892</v>
+        <v>0.1195405406812241</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006957083398958673</v>
+        <v>0.006882177521758817</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1499421302665892</v>
+        <v>0.1195405406812241</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1499421302665892</v>
+        <v>0.1195405406812241</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1499421302665892</v>
+        <v>0.1195405406812241</v>
       </c>
       <c r="H46" t="n">
-        <v>0.007627577323113767</v>
+        <v>0.007477583334398926</v>
       </c>
       <c r="I46" t="n">
-        <v>0.007529180171879122</v>
+        <v>0.03165120330097888</v>
       </c>
       <c r="J46" t="n">
-        <v>0.07701502446256904</v>
+        <v>0.009274676580226163</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1499421302665892</v>
+        <v>0.1195405406812241</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01309850325855107</v>
+        <v>0.0106956669384161</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0463895130700039</v>
+        <v>0.01890564099275195</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04350628081673909</v>
+        <v>0.2821478825806215</v>
       </c>
       <c r="O46" t="n">
-        <v>0.006957115169158102</v>
+        <v>0.006882437442083333</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1499421302665892</v>
+        <v>0.2821478825806215</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3312,60 +3312,60 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.05258944751227702</v>
+        <v>0.04691906699632388</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1534104078041317</v>
+        <v>0.1530725625292826</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007045932117439146</v>
+        <v>0.007026368487328994</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1534104078041317</v>
+        <v>0.1530725625292826</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1534104078041317</v>
+        <v>0.1530725625292826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1534104078041317</v>
+        <v>0.1530725625292826</v>
       </c>
       <c r="H47" t="n">
-        <v>0.007628352170040547</v>
+        <v>0.007706743650924053</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01032283199984598</v>
+        <v>0.007359721377082764</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03196916060896451</v>
+        <v>0.05155589024780049</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1534104078041317</v>
+        <v>0.1530725625292826</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01108879545772074</v>
+        <v>0.01260794956131753</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02849155748425733</v>
+        <v>0.05964651059851912</v>
       </c>
       <c r="N47" t="n">
-        <v>0.07676592294470945</v>
+        <v>0.03478854314044155</v>
       </c>
       <c r="O47" t="n">
-        <v>0.007045960684086759</v>
+        <v>0.007026393293848416</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1534104078041317</v>
+        <v>0.1530725625292826</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3374,60 +3374,60 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT462.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.05502464238572182</v>
+        <v>0.03242026838338887</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1476144893678214</v>
+        <v>0.1096853826931525</v>
       </c>
       <c r="D48" t="n">
-        <v>0.006959727981884511</v>
+        <v>0.006851458091560379</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1476144893678214</v>
+        <v>0.1096853826931525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1476144893678214</v>
+        <v>0.1096853826931525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1476144893678214</v>
+        <v>0.1096853826931525</v>
       </c>
       <c r="H48" t="n">
-        <v>0.007563913815336411</v>
+        <v>0.007448859990983934</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02232118073838491</v>
+        <v>0.01565895989886761</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01515247389640653</v>
+        <v>0.009145178675360167</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1476144893678214</v>
+        <v>0.1096853826931525</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0117934920068471</v>
+        <v>0.01022946345355741</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02366236818015325</v>
+        <v>0.02464477789594411</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1124898957605528</v>
+        <v>0.3383224829393767</v>
       </c>
       <c r="O48" t="n">
-        <v>0.006959858395605348</v>
+        <v>0.006851637205198084</v>
       </c>
       <c r="P48" t="n">
-        <v>0.1476144893678214</v>
+        <v>0.3383224829393767</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3436,60 +3436,60 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT463.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.04139901448497284</v>
+        <v>0.03836968301898175</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1166547758071554</v>
+        <v>0.1368231210366798</v>
       </c>
       <c r="D49" t="n">
-        <v>0.006935056113789846</v>
+        <v>0.006914324626301389</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1166547758071554</v>
+        <v>0.1368231210366798</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1166547758071554</v>
+        <v>0.1368231210366798</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1166547758071554</v>
+        <v>0.1368231210366798</v>
       </c>
       <c r="H49" t="n">
-        <v>0.00752128773891471</v>
+        <v>0.007484038287243265</v>
       </c>
       <c r="I49" t="n">
-        <v>0.009978848215183781</v>
+        <v>0.01854522298894366</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01111349757941362</v>
+        <v>0.01777828610263064</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1166547758071554</v>
+        <v>0.1368231210366798</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01042972344281189</v>
+        <v>0.009608602865768699</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02490710495040671</v>
+        <v>0.02764016716106982</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2975063844451959</v>
+        <v>0.1826297128497034</v>
       </c>
       <c r="O49" t="n">
-        <v>0.006935203993533742</v>
+        <v>0.006914356915958329</v>
       </c>
       <c r="P49" t="n">
-        <v>0.2975063844451959</v>
+        <v>0.1826297128497034</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3498,60 +3498,60 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT464.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.05461980205125099</v>
+        <v>0.03662844579611262</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1503742539350307</v>
+        <v>0.1120576896008834</v>
       </c>
       <c r="D50" t="n">
-        <v>0.007065152680063448</v>
+        <v>0.006936165420803318</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1503742539350307</v>
+        <v>0.1120576896008834</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1503742539350307</v>
+        <v>0.1120576896008834</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1503742539350307</v>
+        <v>0.1120576896008834</v>
       </c>
       <c r="H50" t="n">
-        <v>0.007652564870502095</v>
+        <v>0.007519388460472912</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01367796554687781</v>
+        <v>0.00909458013665204</v>
       </c>
       <c r="J50" t="n">
-        <v>0.01781660899744561</v>
+        <v>0.00980468426698294</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1503742539350307</v>
+        <v>0.1120576896008834</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01138000889567028</v>
+        <v>0.01077698412299524</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0235978920719047</v>
+        <v>0.02648691423249354</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1052535361765484</v>
+        <v>0.3255280550957163</v>
       </c>
       <c r="O50" t="n">
-        <v>0.007065199034583217</v>
+        <v>0.006936334463354028</v>
       </c>
       <c r="P50" t="n">
-        <v>0.1503742539350307</v>
+        <v>0.3255280550957163</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3560,60 +3560,60 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT46486.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.04857291405311082</v>
+        <v>0.04671337692284267</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1478497776356619</v>
+        <v>0.1451196087126065</v>
       </c>
       <c r="D51" t="n">
-        <v>0.007209096582030909</v>
+        <v>0.007158438871766165</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1478497776356619</v>
+        <v>0.1451196087126065</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1478497776356619</v>
+        <v>0.1451196087126065</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1478497776356619</v>
+        <v>0.1451196087126065</v>
       </c>
       <c r="H51" t="n">
-        <v>0.007813774168420115</v>
+        <v>0.007771306216339265</v>
       </c>
       <c r="I51" t="n">
-        <v>0.009341406160169475</v>
+        <v>0.01110342845882863</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01411584450853151</v>
+        <v>0.01173387681228133</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1478497776356619</v>
+        <v>0.1451196087126065</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01104469320547842</v>
+        <v>0.01049774582781209</v>
       </c>
       <c r="M51" t="n">
-        <v>0.02092278796090431</v>
+        <v>0.02582320501118958</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1345213796112724</v>
+        <v>0.1464418793053644</v>
       </c>
       <c r="O51" t="n">
-        <v>0.007209215571772579</v>
+        <v>0.00715869901054364</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1478497776356619</v>
+        <v>0.1464418793053644</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3622,122 +3622,122 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47464.fa</t>
+          <t>even_MAG-GUT46493.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.03148921181775229</v>
+        <v>0.0315937697438985</v>
       </c>
       <c r="C52" t="n">
-        <v>0.05086965694126058</v>
+        <v>0.1355239015211258</v>
       </c>
       <c r="D52" t="n">
-        <v>0.005523268982108647</v>
+        <v>0.007023275718756656</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05086965694126058</v>
+        <v>0.1355239015211258</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05086965694126058</v>
+        <v>0.1355239015211258</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05086965694126058</v>
+        <v>0.1355239015211258</v>
       </c>
       <c r="H52" t="n">
-        <v>0.006116737192823104</v>
+        <v>0.007613029603721187</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03075392876743073</v>
+        <v>0.02361376323339304</v>
       </c>
       <c r="J52" t="n">
-        <v>0.007865051303976802</v>
+        <v>0.01201427782655124</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05086965694126058</v>
+        <v>0.1355239015211258</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00887492135685102</v>
+        <v>0.01020461470404636</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03496903413934092</v>
+        <v>0.01930519742318251</v>
       </c>
       <c r="N52" t="n">
-        <v>0.6145359354504343</v>
+        <v>0.2039891341559876</v>
       </c>
       <c r="O52" t="n">
-        <v>0.005523626282979437</v>
+        <v>0.007023429984833987</v>
       </c>
       <c r="P52" t="n">
-        <v>0.6145359354504343</v>
+        <v>0.2039891341559876</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT465.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1120314363718022</v>
+        <v>0.03578485960275665</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1118848888035847</v>
+        <v>0.1173640609689945</v>
       </c>
       <c r="D53" t="n">
-        <v>0.006710636554260508</v>
+        <v>0.006615117009120071</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1118848888035847</v>
+        <v>0.1173640609689945</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1118848888035847</v>
+        <v>0.1173640609689945</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1118848888035847</v>
+        <v>0.1173640609689945</v>
       </c>
       <c r="H53" t="n">
-        <v>0.007292987830270849</v>
+        <v>0.007201551653093587</v>
       </c>
       <c r="I53" t="n">
-        <v>0.007537944032584197</v>
+        <v>0.05356854837286832</v>
       </c>
       <c r="J53" t="n">
-        <v>0.008114659885203507</v>
+        <v>0.01327023698778025</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1118848888035847</v>
+        <v>0.1173640609689945</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01649164255158437</v>
+        <v>0.009440795736376743</v>
       </c>
       <c r="M53" t="n">
-        <v>0.03964295338781211</v>
+        <v>0.02702492469438741</v>
       </c>
       <c r="N53" t="n">
-        <v>0.2360424733107385</v>
+        <v>0.2536584563004122</v>
       </c>
       <c r="O53" t="n">
-        <v>0.00671082205782034</v>
+        <v>0.006615204798232152</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2360424733107385</v>
+        <v>0.2536584563004122</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -3746,60 +3746,60 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT467.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04480252231496039</v>
+        <v>0.04450949943753887</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1220144282134758</v>
+        <v>0.1324167080773051</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006710059130220671</v>
+        <v>0.006581975167182027</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1220144282134758</v>
+        <v>0.1324167080773051</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1220144282134758</v>
+        <v>0.1324167080773051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1220144282134758</v>
+        <v>0.1324167080773051</v>
       </c>
       <c r="H54" t="n">
-        <v>0.007305451380448148</v>
+        <v>0.007172401650866384</v>
       </c>
       <c r="I54" t="n">
-        <v>0.02741060283766175</v>
+        <v>0.06609855104631623</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01226799164134788</v>
+        <v>0.02233599749467379</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1220144282134758</v>
+        <v>0.1324167080773051</v>
       </c>
       <c r="L54" t="n">
-        <v>0.009755766919867305</v>
+        <v>0.009321277246983764</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03309550544338519</v>
+        <v>0.03369120833852506</v>
       </c>
       <c r="N54" t="n">
-        <v>0.2418697707327155</v>
+        <v>0.1416235232638733</v>
       </c>
       <c r="O54" t="n">
-        <v>0.006710188532014027</v>
+        <v>0.006582025967515279</v>
       </c>
       <c r="P54" t="n">
-        <v>0.2418697707327155</v>
+        <v>0.1416235232638733</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3808,60 +3808,60 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55663.fa</t>
+          <t>even_MAG-GUT46760.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.06956008999151063</v>
+        <v>0.05258944751227702</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1403884548033882</v>
+        <v>0.1534104078041317</v>
       </c>
       <c r="D55" t="n">
-        <v>0.006831949730777265</v>
+        <v>0.007045932117439146</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1403884548033882</v>
+        <v>0.1534104078041317</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1403884548033882</v>
+        <v>0.1534104078041317</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1403884548033882</v>
+        <v>0.1534104078041317</v>
       </c>
       <c r="H55" t="n">
-        <v>0.007486293986614111</v>
+        <v>0.007628352170040547</v>
       </c>
       <c r="I55" t="n">
-        <v>0.007436669560809469</v>
+        <v>0.01032283199984598</v>
       </c>
       <c r="J55" t="n">
-        <v>0.09003003654704581</v>
+        <v>0.03196916060896451</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1403884548033882</v>
+        <v>0.1534104078041317</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01208988444587916</v>
+        <v>0.01108879545772074</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06974163124731099</v>
+        <v>0.02849155748425733</v>
       </c>
       <c r="N55" t="n">
-        <v>0.02804919980692976</v>
+        <v>0.07676592294470945</v>
       </c>
       <c r="O55" t="n">
-        <v>0.006831970666181736</v>
+        <v>0.007045960684086759</v>
       </c>
       <c r="P55" t="n">
-        <v>0.1403884548033882</v>
+        <v>0.1534104078041317</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -3870,60 +3870,60 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55688.fa</t>
+          <t>even_MAG-GUT468.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0687599472207059</v>
+        <v>0.05502464238572182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1495559601826895</v>
+        <v>0.1476144893678214</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006951913940941573</v>
+        <v>0.006959727981884511</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1495559601826895</v>
+        <v>0.1476144893678214</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1495559601826895</v>
+        <v>0.1476144893678214</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1495559601826895</v>
+        <v>0.1476144893678214</v>
       </c>
       <c r="H56" t="n">
-        <v>0.007630572019718149</v>
+        <v>0.007563913815336411</v>
       </c>
       <c r="I56" t="n">
-        <v>0.007467993390397671</v>
+        <v>0.02232118073838491</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04953933468669345</v>
+        <v>0.01515247389640653</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1495559601826895</v>
+        <v>0.1476144893678214</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01308003075645292</v>
+        <v>0.0117934920068471</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05834320308249328</v>
+        <v>0.02366236818015325</v>
       </c>
       <c r="N56" t="n">
-        <v>0.03349526816946708</v>
+        <v>0.1124898957605528</v>
       </c>
       <c r="O56" t="n">
-        <v>0.006951935819682471</v>
+        <v>0.006959858395605348</v>
       </c>
       <c r="P56" t="n">
-        <v>0.1495559601826895</v>
+        <v>0.1476144893678214</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3932,60 +3932,60 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT469.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1143649186895167</v>
+        <v>0.04139901448497284</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1012647994040143</v>
+        <v>0.1166547758071554</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006568339929552611</v>
+        <v>0.006935056113789846</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1012647994040143</v>
+        <v>0.1166547758071554</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1012647994040143</v>
+        <v>0.1166547758071554</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1012647994040143</v>
+        <v>0.1166547758071554</v>
       </c>
       <c r="H57" t="n">
-        <v>0.007156046360652002</v>
+        <v>0.00752128773891471</v>
       </c>
       <c r="I57" t="n">
-        <v>0.008460436614278203</v>
+        <v>0.009978848215183781</v>
       </c>
       <c r="J57" t="n">
-        <v>0.008113191861712322</v>
+        <v>0.01111349757941362</v>
       </c>
       <c r="K57" t="n">
-        <v>0.1012647994040143</v>
+        <v>0.1166547758071554</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01540990463046022</v>
+        <v>0.01042972344281189</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03796088249029284</v>
+        <v>0.02490710495040671</v>
       </c>
       <c r="N57" t="n">
-        <v>0.2890737365409133</v>
+        <v>0.2975063844451959</v>
       </c>
       <c r="O57" t="n">
-        <v>0.006568545862550325</v>
+        <v>0.006935203993533742</v>
       </c>
       <c r="P57" t="n">
-        <v>0.2890737365409133</v>
+        <v>0.2975063844451959</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3994,60 +3994,60 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59472.fa</t>
+          <t>even_MAG-GUT470.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03077662716460055</v>
+        <v>0.05461980205125099</v>
       </c>
       <c r="C58" t="n">
-        <v>0.144251693731983</v>
+        <v>0.1503742539350307</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006937318812275522</v>
+        <v>0.007065152680063448</v>
       </c>
       <c r="E58" t="n">
-        <v>0.144251693731983</v>
+        <v>0.1503742539350307</v>
       </c>
       <c r="F58" t="n">
-        <v>0.144251693731983</v>
+        <v>0.1503742539350307</v>
       </c>
       <c r="G58" t="n">
-        <v>0.144251693731983</v>
+        <v>0.1503742539350307</v>
       </c>
       <c r="H58" t="n">
-        <v>0.007594111707626735</v>
+        <v>0.007652564870502095</v>
       </c>
       <c r="I58" t="n">
-        <v>0.007392277736395772</v>
+        <v>0.01367796554687781</v>
       </c>
       <c r="J58" t="n">
-        <v>0.06253813293439646</v>
+        <v>0.01781660899744561</v>
       </c>
       <c r="K58" t="n">
-        <v>0.144251693731983</v>
+        <v>0.1503742539350307</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01227052299166928</v>
+        <v>0.01138000889567028</v>
       </c>
       <c r="M58" t="n">
-        <v>0.1088744055621333</v>
+        <v>0.0235978920719047</v>
       </c>
       <c r="N58" t="n">
-        <v>0.03542080159044293</v>
+        <v>0.1052535361765484</v>
       </c>
       <c r="O58" t="n">
-        <v>0.006937332840544128</v>
+        <v>0.007065199034583217</v>
       </c>
       <c r="P58" t="n">
-        <v>0.144251693731983</v>
+        <v>0.1503742539350307</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -4056,60 +4056,60 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62023.fa</t>
+          <t>even_MAG-GUT471.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.04061601545529818</v>
+        <v>0.04857291405311082</v>
       </c>
       <c r="C59" t="n">
-        <v>0.136976791764238</v>
+        <v>0.1478497776356619</v>
       </c>
       <c r="D59" t="n">
-        <v>0.006727604322570227</v>
+        <v>0.007209096582030909</v>
       </c>
       <c r="E59" t="n">
-        <v>0.136976791764238</v>
+        <v>0.1478497776356619</v>
       </c>
       <c r="F59" t="n">
-        <v>0.136976791764238</v>
+        <v>0.1478497776356619</v>
       </c>
       <c r="G59" t="n">
-        <v>0.136976791764238</v>
+        <v>0.1478497776356619</v>
       </c>
       <c r="H59" t="n">
-        <v>0.007407821726042326</v>
+        <v>0.007813774168420115</v>
       </c>
       <c r="I59" t="n">
-        <v>0.007203598138398993</v>
+        <v>0.009341406160169475</v>
       </c>
       <c r="J59" t="n">
-        <v>0.05829735512760142</v>
+        <v>0.01411584450853151</v>
       </c>
       <c r="K59" t="n">
-        <v>0.136976791764238</v>
+        <v>0.1478497776356619</v>
       </c>
       <c r="L59" t="n">
-        <v>0.01403754144576234</v>
+        <v>0.01104469320547842</v>
       </c>
       <c r="M59" t="n">
-        <v>0.1098453071015376</v>
+        <v>0.02092278796090431</v>
       </c>
       <c r="N59" t="n">
-        <v>0.06425311022681517</v>
+        <v>0.1345213796112724</v>
       </c>
       <c r="O59" t="n">
-        <v>0.00672768763478405</v>
+        <v>0.007209215571772579</v>
       </c>
       <c r="P59" t="n">
-        <v>0.136976791764238</v>
+        <v>0.1478497776356619</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -4118,122 +4118,122 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT47464.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.06205070757369035</v>
+        <v>0.03148921181775229</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1473578066729682</v>
+        <v>0.05086965694126058</v>
       </c>
       <c r="D60" t="n">
-        <v>0.006857122330480036</v>
+        <v>0.005523268982108647</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1473578066729682</v>
+        <v>0.05086965694126058</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1473578066729682</v>
+        <v>0.05086965694126058</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1473578066729682</v>
+        <v>0.05086965694126058</v>
       </c>
       <c r="H60" t="n">
-        <v>0.007461457755049301</v>
+        <v>0.006116737192823104</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02540762734336366</v>
+        <v>0.03075392876743073</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0177791468960475</v>
+        <v>0.007865051303976802</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1473578066729682</v>
+        <v>0.05086965694126058</v>
       </c>
       <c r="L60" t="n">
-        <v>0.01096245170979718</v>
+        <v>0.00887492135685102</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03284481969576518</v>
+        <v>0.03496903413934092</v>
       </c>
       <c r="N60" t="n">
-        <v>0.09299040619546631</v>
+        <v>0.6145359354504343</v>
       </c>
       <c r="O60" t="n">
-        <v>0.006857227135499355</v>
+        <v>0.005523626282979437</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1473578066729682</v>
+        <v>0.6145359354504343</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT47585.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.04682213140773509</v>
+        <v>0.1120314363718022</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1314775652153832</v>
+        <v>0.1118848888035847</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006757506466343521</v>
+        <v>0.006710636554260508</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1314775652153832</v>
+        <v>0.1118848888035847</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1314775652153832</v>
+        <v>0.1118848888035847</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1314775652153832</v>
+        <v>0.1118848888035847</v>
       </c>
       <c r="H61" t="n">
-        <v>0.007422365901582961</v>
+        <v>0.007292987830270849</v>
       </c>
       <c r="I61" t="n">
-        <v>0.007028311744468579</v>
+        <v>0.007537944032584197</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1400738629528524</v>
+        <v>0.008114659885203507</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1314775652153832</v>
+        <v>0.1118848888035847</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01182126856523769</v>
+        <v>0.01649164255158437</v>
       </c>
       <c r="M61" t="n">
-        <v>0.08729552590282834</v>
+        <v>0.03964295338781211</v>
       </c>
       <c r="N61" t="n">
-        <v>0.02863368167870651</v>
+        <v>0.2360424733107385</v>
       </c>
       <c r="O61" t="n">
-        <v>0.006757519303328686</v>
+        <v>0.00671082205782034</v>
       </c>
       <c r="P61" t="n">
-        <v>0.1400738629528524</v>
+        <v>0.2360424733107385</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4242,122 +4242,122 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67012.fa</t>
+          <t>even_MAG-GUT47777.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.04292714271956791</v>
+        <v>0.1359793157767972</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06355749875159354</v>
+        <v>0.09006546140412464</v>
       </c>
       <c r="D62" t="n">
-        <v>0.005883033199751856</v>
+        <v>0.006388309150771586</v>
       </c>
       <c r="E62" t="n">
-        <v>0.06355749875159354</v>
+        <v>0.09006546140412464</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06355749875159354</v>
+        <v>0.09006546140412464</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06355749875159354</v>
+        <v>0.09006546140412464</v>
       </c>
       <c r="H62" t="n">
-        <v>0.006472871152565065</v>
+        <v>0.007000786026594024</v>
       </c>
       <c r="I62" t="n">
-        <v>0.02176889840031761</v>
+        <v>0.006461141544424346</v>
       </c>
       <c r="J62" t="n">
-        <v>0.008501350491781749</v>
+        <v>0.007478203123626793</v>
       </c>
       <c r="K62" t="n">
-        <v>0.06355749875159354</v>
+        <v>0.09006546140412464</v>
       </c>
       <c r="L62" t="n">
-        <v>0.009341228231202699</v>
+        <v>0.02232137475902182</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0422935085780952</v>
+        <v>0.03842756362292531</v>
       </c>
       <c r="N62" t="n">
-        <v>0.5391412767220456</v>
+        <v>0.3192265317712349</v>
       </c>
       <c r="O62" t="n">
-        <v>0.005883196746704684</v>
+        <v>0.006389467203980568</v>
       </c>
       <c r="P62" t="n">
-        <v>0.5391412767220456</v>
+        <v>0.3192265317712349</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67120.fa</t>
+          <t>even_MAG-GUT48579.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.05910748597632296</v>
+        <v>0.04480252231496039</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1310063981027932</v>
+        <v>0.1220144282134758</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006630393266346886</v>
+        <v>0.006710059130220671</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1310063981027932</v>
+        <v>0.1220144282134758</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1310063981027932</v>
+        <v>0.1220144282134758</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1310063981027932</v>
+        <v>0.1220144282134758</v>
       </c>
       <c r="H63" t="n">
-        <v>0.007289580290119856</v>
+        <v>0.007305451380448148</v>
       </c>
       <c r="I63" t="n">
-        <v>0.007321855031467632</v>
+        <v>0.02741060283766175</v>
       </c>
       <c r="J63" t="n">
-        <v>0.09457789359833689</v>
+        <v>0.01226799164134788</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1310063981027932</v>
+        <v>0.1220144282134758</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01208771496453528</v>
+        <v>0.009755766919867305</v>
       </c>
       <c r="M63" t="n">
-        <v>0.09865481758988738</v>
+        <v>0.03309550544338519</v>
       </c>
       <c r="N63" t="n">
-        <v>0.05266784865088897</v>
+        <v>0.2418697707327155</v>
       </c>
       <c r="O63" t="n">
-        <v>0.006630420118127982</v>
+        <v>0.006710188532014027</v>
       </c>
       <c r="P63" t="n">
-        <v>0.1310063981027932</v>
+        <v>0.2418697707327155</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4366,60 +4366,60 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT54955.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.08154658005189246</v>
+        <v>0.1199439303501509</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1486895334203827</v>
+        <v>0.0606754296078517</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006967743458188415</v>
+        <v>0.005902845370837145</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1486895334203827</v>
+        <v>0.0606754296078517</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1486895334203827</v>
+        <v>0.0606754296078517</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1486895334203827</v>
+        <v>0.0606754296078517</v>
       </c>
       <c r="H64" t="n">
-        <v>0.007608293091289891</v>
+        <v>0.006499046836175913</v>
       </c>
       <c r="I64" t="n">
-        <v>0.007627208811321467</v>
+        <v>0.006084228737929024</v>
       </c>
       <c r="J64" t="n">
-        <v>0.03530420141370653</v>
+        <v>0.00630924533699897</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1486895334203827</v>
+        <v>0.0606754296078517</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01132618703839169</v>
+        <v>0.01759077443324786</v>
       </c>
       <c r="M64" t="n">
-        <v>0.04734593990957144</v>
+        <v>0.03143705005768093</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0518583538600743</v>
+        <v>0.4969520958433674</v>
       </c>
       <c r="O64" t="n">
-        <v>0.006967825263650368</v>
+        <v>0.005903634994353454</v>
       </c>
       <c r="P64" t="n">
-        <v>0.1486895334203827</v>
+        <v>0.4969520958433674</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -4428,60 +4428,60 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67770.fa</t>
+          <t>even_MAG-GUT55688.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.03984826731292374</v>
+        <v>0.0687599472207059</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1482808351448489</v>
+        <v>0.1495559601826895</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006949290117211853</v>
+        <v>0.006951913940941573</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1482808351448489</v>
+        <v>0.1495559601826895</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1482808351448489</v>
+        <v>0.1495559601826895</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1482808351448489</v>
+        <v>0.1495559601826895</v>
       </c>
       <c r="H65" t="n">
-        <v>0.007640095019713346</v>
+        <v>0.007630572019718149</v>
       </c>
       <c r="I65" t="n">
-        <v>0.007507956515417482</v>
+        <v>0.007467993390397671</v>
       </c>
       <c r="J65" t="n">
-        <v>0.03321371215213988</v>
+        <v>0.04953933468669345</v>
       </c>
       <c r="K65" t="n">
-        <v>0.1482808351448489</v>
+        <v>0.1495559601826895</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01397828302006115</v>
+        <v>0.01308003075645292</v>
       </c>
       <c r="M65" t="n">
-        <v>0.09272980131489404</v>
+        <v>0.05834320308249328</v>
       </c>
       <c r="N65" t="n">
-        <v>0.04977908592701252</v>
+        <v>0.03349526816946708</v>
       </c>
       <c r="O65" t="n">
-        <v>0.006949332896381633</v>
+        <v>0.006951935819682471</v>
       </c>
       <c r="P65" t="n">
-        <v>0.1482808351448489</v>
+        <v>0.1495559601826895</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -4490,60 +4490,60 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67779.fa</t>
+          <t>even_MAG-GUT55792.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.04436956747800917</v>
+        <v>0.08247197916406279</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1461199645130763</v>
+        <v>0.1009400623529543</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006896966548647547</v>
+        <v>0.00674360864786817</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1461199645130763</v>
+        <v>0.1009400623529543</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1461199645130763</v>
+        <v>0.1009400623529543</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1461199645130763</v>
+        <v>0.1009400623529543</v>
       </c>
       <c r="H66" t="n">
-        <v>0.007568100956964336</v>
+        <v>0.00733599983735268</v>
       </c>
       <c r="I66" t="n">
-        <v>0.007221979609429846</v>
+        <v>0.006931173680547676</v>
       </c>
       <c r="J66" t="n">
-        <v>0.06635654814196529</v>
+        <v>0.007611490518552842</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1461199645130763</v>
+        <v>0.1009400623529543</v>
       </c>
       <c r="L66" t="n">
-        <v>0.01377125245369997</v>
+        <v>0.015618062860079</v>
       </c>
       <c r="M66" t="n">
-        <v>0.08185322454492244</v>
+        <v>0.02362470887706576</v>
       </c>
       <c r="N66" t="n">
-        <v>0.03446556156763448</v>
+        <v>0.3382185834854235</v>
       </c>
       <c r="O66" t="n">
-        <v>0.006896976133345751</v>
+        <v>0.006744081164276124</v>
       </c>
       <c r="P66" t="n">
-        <v>0.1461199645130763</v>
+        <v>0.3382185834854235</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -4552,60 +4552,60 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67830.fa</t>
+          <t>even_MAG-GUT56059.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.06211340334314338</v>
+        <v>0.1143649186895167</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1515702109145163</v>
+        <v>0.1012647994040143</v>
       </c>
       <c r="D67" t="n">
-        <v>0.007024081148384176</v>
+        <v>0.006568339929552611</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1515702109145163</v>
+        <v>0.1012647994040143</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1515702109145163</v>
+        <v>0.1012647994040143</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1515702109145163</v>
+        <v>0.1012647994040143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0076843860338302</v>
+        <v>0.007156046360652002</v>
       </c>
       <c r="I67" t="n">
-        <v>0.007290804146521556</v>
+        <v>0.008460436614278203</v>
       </c>
       <c r="J67" t="n">
-        <v>0.02899235672585654</v>
+        <v>0.008113191861712322</v>
       </c>
       <c r="K67" t="n">
-        <v>0.1515702109145163</v>
+        <v>0.1012647994040143</v>
       </c>
       <c r="L67" t="n">
-        <v>0.01234199631017402</v>
+        <v>0.01540990463046022</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04604502914955737</v>
+        <v>0.03796088249029284</v>
       </c>
       <c r="N67" t="n">
-        <v>0.06363269178254866</v>
+        <v>0.2890737365409133</v>
       </c>
       <c r="O67" t="n">
-        <v>0.007024196787402501</v>
+        <v>0.006568545862550325</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1515702109145163</v>
+        <v>0.2890737365409133</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -4614,60 +4614,60 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67839.fa</t>
+          <t>even_MAG-GUT59472.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.07329996502580768</v>
+        <v>0.03077662716460055</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1409643935203105</v>
+        <v>0.144251693731983</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006864295230658493</v>
+        <v>0.006937318812275522</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1409643935203105</v>
+        <v>0.144251693731983</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1409643935203105</v>
+        <v>0.144251693731983</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1409643935203105</v>
+        <v>0.144251693731983</v>
       </c>
       <c r="H68" t="n">
-        <v>0.007526090802703515</v>
+        <v>0.007594111707626735</v>
       </c>
       <c r="I68" t="n">
-        <v>0.008521078873778076</v>
+        <v>0.007392277736395772</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02065688049390775</v>
+        <v>0.06253813293439646</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1409643935203105</v>
+        <v>0.144251693731983</v>
       </c>
       <c r="L68" t="n">
-        <v>0.011854323320442</v>
+        <v>0.01227052299166928</v>
       </c>
       <c r="M68" t="n">
-        <v>0.06638438523641536</v>
+        <v>0.1088744055621333</v>
       </c>
       <c r="N68" t="n">
-        <v>0.093206573157033</v>
+        <v>0.03542080159044293</v>
       </c>
       <c r="O68" t="n">
-        <v>0.006864440257701315</v>
+        <v>0.006937332840544128</v>
       </c>
       <c r="P68" t="n">
-        <v>0.1409643935203105</v>
+        <v>0.144251693731983</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -4676,60 +4676,60 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT62023.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03037197823898152</v>
+        <v>0.04061601545529818</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1242124525914568</v>
+        <v>0.136976791764238</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0069187094646373</v>
+        <v>0.006727604322570227</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1242124525914568</v>
+        <v>0.136976791764238</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1242124525914568</v>
+        <v>0.136976791764238</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1242124525914568</v>
+        <v>0.136976791764238</v>
       </c>
       <c r="H69" t="n">
-        <v>0.007498972675232707</v>
+        <v>0.007407821726042326</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02002561930290885</v>
+        <v>0.007203598138398993</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01106022605477829</v>
+        <v>0.05829735512760142</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1242124525914568</v>
+        <v>0.136976791764238</v>
       </c>
       <c r="L69" t="n">
-        <v>0.01018338538934081</v>
+        <v>0.01403754144576234</v>
       </c>
       <c r="M69" t="n">
-        <v>0.02526331015351884</v>
+        <v>0.1098453071015376</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2606967258668893</v>
+        <v>0.06425311022681517</v>
       </c>
       <c r="O69" t="n">
-        <v>0.006918809896428532</v>
+        <v>0.00672768763478405</v>
       </c>
       <c r="P69" t="n">
-        <v>0.2606967258668893</v>
+        <v>0.136976791764238</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -4738,60 +4738,60 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67977.fa</t>
+          <t>even_MAG-GUT64457.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06872061511511535</v>
+        <v>0.06205070757369035</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1439920182911606</v>
+        <v>0.1473578066729682</v>
       </c>
       <c r="D70" t="n">
-        <v>0.006838710984747495</v>
+        <v>0.006857122330480036</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1439920182911606</v>
+        <v>0.1473578066729682</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1439920182911606</v>
+        <v>0.1473578066729682</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1439920182911606</v>
+        <v>0.1473578066729682</v>
       </c>
       <c r="H70" t="n">
-        <v>0.007513860433813764</v>
+        <v>0.007461457755049301</v>
       </c>
       <c r="I70" t="n">
-        <v>0.007243666598931458</v>
+        <v>0.02540762734336366</v>
       </c>
       <c r="J70" t="n">
-        <v>0.07084530264756858</v>
+        <v>0.0177791468960475</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1439920182911606</v>
+        <v>0.1473578066729682</v>
       </c>
       <c r="L70" t="n">
-        <v>0.01299223153833645</v>
+        <v>0.01096245170979718</v>
       </c>
       <c r="M70" t="n">
-        <v>0.05870366191863702</v>
+        <v>0.03284481969576518</v>
       </c>
       <c r="N70" t="n">
-        <v>0.04034310945744373</v>
+        <v>0.09299040619546631</v>
       </c>
       <c r="O70" t="n">
-        <v>0.006838749849603242</v>
+        <v>0.006857227135499355</v>
       </c>
       <c r="P70" t="n">
-        <v>0.1439920182911606</v>
+        <v>0.1473578066729682</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4800,60 +4800,60 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68007.fa</t>
+          <t>even_MAG-GUT66991.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.06413562471905555</v>
+        <v>0.04682213140773509</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1458349705472149</v>
+        <v>0.1314775652153832</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006866308766963462</v>
+        <v>0.006757506466343521</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1458349705472149</v>
+        <v>0.1314775652153832</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1458349705472149</v>
+        <v>0.1314775652153832</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1458349705472149</v>
+        <v>0.1314775652153832</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00753015972903761</v>
+        <v>0.007422365901582961</v>
       </c>
       <c r="I71" t="n">
-        <v>0.007430239238475276</v>
+        <v>0.007028311744468579</v>
       </c>
       <c r="J71" t="n">
-        <v>0.03661862338922089</v>
+        <v>0.1400738629528524</v>
       </c>
       <c r="K71" t="n">
-        <v>0.1458349705472149</v>
+        <v>0.1314775652153832</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01430350079858722</v>
+        <v>0.01182126856523769</v>
       </c>
       <c r="M71" t="n">
-        <v>0.07909199036275956</v>
+        <v>0.08729552590282834</v>
       </c>
       <c r="N71" t="n">
-        <v>0.04798235069715161</v>
+        <v>0.02863368167870651</v>
       </c>
       <c r="O71" t="n">
-        <v>0.006866349562674401</v>
+        <v>0.006757519303328686</v>
       </c>
       <c r="P71" t="n">
-        <v>0.1458349705472149</v>
+        <v>0.1400738629528524</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -4862,122 +4862,122 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68023.fa</t>
+          <t>even_MAG-GUT67012.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.03802987893081823</v>
+        <v>0.04292714271956791</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1500192141081275</v>
+        <v>0.06355749875159354</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006979906239562544</v>
+        <v>0.005883033199751856</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1500192141081275</v>
+        <v>0.06355749875159354</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1500192141081275</v>
+        <v>0.06355749875159354</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1500192141081275</v>
+        <v>0.06355749875159354</v>
       </c>
       <c r="H72" t="n">
-        <v>0.007671417496657365</v>
+        <v>0.006472871152565065</v>
       </c>
       <c r="I72" t="n">
-        <v>0.00773306516006562</v>
+        <v>0.02176889840031761</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03195587041739156</v>
+        <v>0.008501350491781749</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1500192141081275</v>
+        <v>0.06355749875159354</v>
       </c>
       <c r="L72" t="n">
-        <v>0.01288189072586807</v>
+        <v>0.009341228231202699</v>
       </c>
       <c r="M72" t="n">
-        <v>0.06191312538489725</v>
+        <v>0.0422935085780952</v>
       </c>
       <c r="N72" t="n">
-        <v>0.07575878558173127</v>
+        <v>0.5391412767220456</v>
       </c>
       <c r="O72" t="n">
-        <v>0.006979989522370562</v>
+        <v>0.005883196746704684</v>
       </c>
       <c r="P72" t="n">
-        <v>0.1500192141081275</v>
+        <v>0.5391412767220456</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68157.fa</t>
+          <t>even_MAG-GUT67029.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.06753507316824646</v>
+        <v>0.03888415007748993</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1490501375986419</v>
+        <v>0.08534479735933279</v>
       </c>
       <c r="D73" t="n">
-        <v>0.006949756736811604</v>
+        <v>0.006386646236177291</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1490501375986419</v>
+        <v>0.08534479735933279</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1490501375986419</v>
+        <v>0.08534479735933279</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1490501375986419</v>
+        <v>0.08534479735933279</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007628475985299397</v>
+        <v>0.006968629288740122</v>
       </c>
       <c r="I73" t="n">
-        <v>0.007251937411969561</v>
+        <v>0.01892856062305113</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02992173238418689</v>
+        <v>0.01099571713217604</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1490501375986419</v>
+        <v>0.08534479735933279</v>
       </c>
       <c r="L73" t="n">
-        <v>0.01489338550737124</v>
+        <v>0.009744482960172286</v>
       </c>
       <c r="M73" t="n">
-        <v>0.07260988707640449</v>
+        <v>0.02969227559528986</v>
       </c>
       <c r="N73" t="n">
-        <v>0.04100927636564971</v>
+        <v>0.4452888225427656</v>
       </c>
       <c r="O73" t="n">
-        <v>0.006949787370851243</v>
+        <v>0.006386728747473778</v>
       </c>
       <c r="P73" t="n">
-        <v>0.1490501375986419</v>
+        <v>0.4452888225427656</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -4986,60 +4986,60 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT67120.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.03318193722707877</v>
+        <v>0.05910748597632296</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1089817646151811</v>
+        <v>0.1310063981027932</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006894822371233083</v>
+        <v>0.006630393266346886</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1089817646151811</v>
+        <v>0.1310063981027932</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1089817646151811</v>
+        <v>0.1310063981027932</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1089817646151811</v>
+        <v>0.1310063981027932</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00753059340162402</v>
+        <v>0.007289580290119856</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01202980774459763</v>
+        <v>0.007321855031467632</v>
       </c>
       <c r="J74" t="n">
-        <v>0.008254632196636842</v>
+        <v>0.09457789359833689</v>
       </c>
       <c r="K74" t="n">
-        <v>0.1089817646151811</v>
+        <v>0.1310063981027932</v>
       </c>
       <c r="L74" t="n">
-        <v>0.01180917227123895</v>
+        <v>0.01208771496453528</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02368316652474715</v>
+        <v>0.09865481758988738</v>
       </c>
       <c r="N74" t="n">
-        <v>0.3448096164134446</v>
+        <v>0.05266784865088897</v>
       </c>
       <c r="O74" t="n">
-        <v>0.006897428773493705</v>
+        <v>0.006630420118127982</v>
       </c>
       <c r="P74" t="n">
-        <v>0.3448096164134446</v>
+        <v>0.1310063981027932</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -5048,60 +5048,60 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT67723.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.07335519056738174</v>
+        <v>0.08154658005189246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.147534215355971</v>
+        <v>0.1486895334203827</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006917000618719848</v>
+        <v>0.006967743458188415</v>
       </c>
       <c r="E75" t="n">
-        <v>0.147534215355971</v>
+        <v>0.1486895334203827</v>
       </c>
       <c r="F75" t="n">
-        <v>0.147534215355971</v>
+        <v>0.1486895334203827</v>
       </c>
       <c r="G75" t="n">
-        <v>0.147534215355971</v>
+        <v>0.1486895334203827</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007580416230984985</v>
+        <v>0.007608293091289891</v>
       </c>
       <c r="I75" t="n">
-        <v>0.007385051116648294</v>
+        <v>0.007627208811321467</v>
       </c>
       <c r="J75" t="n">
-        <v>0.05352018477235362</v>
+        <v>0.03530420141370653</v>
       </c>
       <c r="K75" t="n">
-        <v>0.147534215355971</v>
+        <v>0.1486895334203827</v>
       </c>
       <c r="L75" t="n">
-        <v>0.01196731311191159</v>
+        <v>0.01132618703839169</v>
       </c>
       <c r="M75" t="n">
-        <v>0.05234423805021202</v>
+        <v>0.04734593990957144</v>
       </c>
       <c r="N75" t="n">
-        <v>0.04234249791830669</v>
+        <v>0.0518583538600743</v>
       </c>
       <c r="O75" t="n">
-        <v>0.006917030833626585</v>
+        <v>0.006967825263650368</v>
       </c>
       <c r="P75" t="n">
-        <v>0.147534215355971</v>
+        <v>0.1486895334203827</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -5110,60 +5110,60 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.05047991837603969</v>
+        <v>0.03984826731292374</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1405997515279171</v>
+        <v>0.1482808351448489</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00678125037889292</v>
+        <v>0.006949290117211853</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1405997515279171</v>
+        <v>0.1482808351448489</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1405997515279171</v>
+        <v>0.1482808351448489</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1405997515279171</v>
+        <v>0.1482808351448489</v>
       </c>
       <c r="H76" t="n">
-        <v>0.007446707321659707</v>
+        <v>0.007640095019713346</v>
       </c>
       <c r="I76" t="n">
-        <v>0.007093642695238038</v>
+        <v>0.007507956515417482</v>
       </c>
       <c r="J76" t="n">
-        <v>0.04510013825565522</v>
+        <v>0.03321371215213988</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1405997515279171</v>
+        <v>0.1482808351448489</v>
       </c>
       <c r="L76" t="n">
-        <v>0.01367278374964008</v>
+        <v>0.01397828302006115</v>
       </c>
       <c r="M76" t="n">
-        <v>0.09106396881807653</v>
+        <v>0.09272980131489404</v>
       </c>
       <c r="N76" t="n">
-        <v>0.06858151567751443</v>
+        <v>0.04977908592701252</v>
       </c>
       <c r="O76" t="n">
-        <v>0.006781317087697933</v>
+        <v>0.006949332896381633</v>
       </c>
       <c r="P76" t="n">
-        <v>0.1405997515279171</v>
+        <v>0.1482808351448489</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -5172,60 +5172,60 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT67779.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.03470356348165098</v>
+        <v>0.04436956747800917</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09566531241175935</v>
+        <v>0.1461199645130763</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006721785904415922</v>
+        <v>0.006896966548647547</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09566531241175935</v>
+        <v>0.1461199645130763</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09566531241175935</v>
+        <v>0.1461199645130763</v>
       </c>
       <c r="G77" t="n">
-        <v>0.09566531241175935</v>
+        <v>0.1461199645130763</v>
       </c>
       <c r="H77" t="n">
-        <v>0.007317507570015806</v>
+        <v>0.007568100956964336</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01261305924194303</v>
+        <v>0.007221979609429846</v>
       </c>
       <c r="J77" t="n">
-        <v>0.008605797325063058</v>
+        <v>0.06635654814196529</v>
       </c>
       <c r="K77" t="n">
-        <v>0.09566531241175935</v>
+        <v>0.1461199645130763</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0103495560348418</v>
+        <v>0.01377125245369997</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0250710420382403</v>
+        <v>0.08185322454492244</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4095691148661584</v>
+        <v>0.03446556156763448</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00672201147887386</v>
+        <v>0.006896976133345751</v>
       </c>
       <c r="P77" t="n">
-        <v>0.4095691148661584</v>
+        <v>0.1461199645130763</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -5234,60 +5234,60 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68659.fa</t>
+          <t>even_MAG-GUT67830.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.04071369875482775</v>
+        <v>0.06211340334314338</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1467966393107615</v>
+        <v>0.1515702109145163</v>
       </c>
       <c r="D78" t="n">
-        <v>0.006916936144695549</v>
+        <v>0.007024081148384176</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1467966393107615</v>
+        <v>0.1515702109145163</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1467966393107615</v>
+        <v>0.1515702109145163</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1467966393107615</v>
+        <v>0.1515702109145163</v>
       </c>
       <c r="H78" t="n">
-        <v>0.007612076861731247</v>
+        <v>0.0076843860338302</v>
       </c>
       <c r="I78" t="n">
-        <v>0.007478983248203296</v>
+        <v>0.007290804146521556</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02969349795725389</v>
+        <v>0.02899235672585654</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1467966393107615</v>
+        <v>0.1515702109145163</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01426725557370524</v>
+        <v>0.01234199631017402</v>
       </c>
       <c r="M78" t="n">
-        <v>0.07254542237517619</v>
+        <v>0.04604502914955737</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07987169230553834</v>
+        <v>0.06363269178254866</v>
       </c>
       <c r="O78" t="n">
-        <v>0.006917240225060863</v>
+        <v>0.007024196787402501</v>
       </c>
       <c r="P78" t="n">
-        <v>0.1467966393107615</v>
+        <v>0.1515702109145163</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -5296,60 +5296,60 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT67839.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.04429147753825593</v>
+        <v>0.07329996502580768</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1432477546749825</v>
+        <v>0.1409643935203105</v>
       </c>
       <c r="D79" t="n">
-        <v>0.007010359957066499</v>
+        <v>0.006864295230658493</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1432477546749825</v>
+        <v>0.1409643935203105</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1432477546749825</v>
+        <v>0.1409643935203105</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1432477546749825</v>
+        <v>0.1409643935203105</v>
       </c>
       <c r="H79" t="n">
-        <v>0.007575337524950274</v>
+        <v>0.007526090802703515</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01618733061560658</v>
+        <v>0.008521078873778076</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01722950891285109</v>
+        <v>0.02065688049390775</v>
       </c>
       <c r="K79" t="n">
-        <v>0.1432477546749825</v>
+        <v>0.1409643935203105</v>
       </c>
       <c r="L79" t="n">
-        <v>0.009775356812788648</v>
+        <v>0.011854323320442</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02448258959218844</v>
+        <v>0.06638438523641536</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1501988784171854</v>
+        <v>0.093206573157033</v>
       </c>
       <c r="O79" t="n">
-        <v>0.007010387254194542</v>
+        <v>0.006864440257701315</v>
       </c>
       <c r="P79" t="n">
-        <v>0.1501988784171854</v>
+        <v>0.1409643935203105</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -5358,122 +5358,122 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68968.fa</t>
+          <t>even_MAG-GUT67975.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.05667306870866792</v>
+        <v>0.03037197823898152</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04642700686880955</v>
+        <v>0.1242124525914568</v>
       </c>
       <c r="D80" t="n">
-        <v>0.005425807854534608</v>
+        <v>0.0069187094646373</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04642700686880955</v>
+        <v>0.1242124525914568</v>
       </c>
       <c r="F80" t="n">
-        <v>0.04642700686880955</v>
+        <v>0.1242124525914568</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04642700686880955</v>
+        <v>0.1242124525914568</v>
       </c>
       <c r="H80" t="n">
-        <v>0.006018459567525247</v>
+        <v>0.007498972675232707</v>
       </c>
       <c r="I80" t="n">
-        <v>0.008093602556143612</v>
+        <v>0.02002561930290885</v>
       </c>
       <c r="J80" t="n">
-        <v>0.006390112728004122</v>
+        <v>0.01106022605477829</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04642700686880955</v>
+        <v>0.1242124525914568</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01353112349718837</v>
+        <v>0.01018338538934081</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0436856002454323</v>
+        <v>0.02526331015351884</v>
       </c>
       <c r="N80" t="n">
-        <v>0.6226201744708232</v>
+        <v>0.2606967258668893</v>
       </c>
       <c r="O80" t="n">
-        <v>0.005427016027633013</v>
+        <v>0.006918809896428532</v>
       </c>
       <c r="P80" t="n">
-        <v>0.6226201744708232</v>
+        <v>0.2606967258668893</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69048.fa</t>
+          <t>even_MAG-GUT67977.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.04170281919413905</v>
+        <v>0.06872061511511535</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1530391515970639</v>
+        <v>0.1439920182911606</v>
       </c>
       <c r="D81" t="n">
-        <v>0.007005489256816429</v>
+        <v>0.006838710984747495</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1530391515970639</v>
+        <v>0.1439920182911606</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1530391515970639</v>
+        <v>0.1439920182911606</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1530391515970639</v>
+        <v>0.1439920182911606</v>
       </c>
       <c r="H81" t="n">
-        <v>0.007668127150592292</v>
+        <v>0.007513860433813764</v>
       </c>
       <c r="I81" t="n">
-        <v>0.00754297182289788</v>
+        <v>0.007243666598931458</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04066325449902355</v>
+        <v>0.07084530264756858</v>
       </c>
       <c r="K81" t="n">
-        <v>0.1530391515970639</v>
+        <v>0.1439920182911606</v>
       </c>
       <c r="L81" t="n">
-        <v>0.01322872076065117</v>
+        <v>0.01299223153833645</v>
       </c>
       <c r="M81" t="n">
-        <v>0.05110776038738588</v>
+        <v>0.05870366191863702</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05887955670696322</v>
+        <v>0.04034310945744373</v>
       </c>
       <c r="O81" t="n">
-        <v>0.007005542236211041</v>
+        <v>0.006838749849603242</v>
       </c>
       <c r="P81" t="n">
-        <v>0.1530391515970639</v>
+        <v>0.1439920182911606</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -5482,60 +5482,60 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69117.fa</t>
+          <t>even_MAG-GUT68007.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04054823019145332</v>
+        <v>0.06413562471905555</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1421525839957563</v>
+        <v>0.1458349705472149</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007276178389162172</v>
+        <v>0.006866308766963462</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1421525839957563</v>
+        <v>0.1458349705472149</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1421525839957563</v>
+        <v>0.1458349705472149</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1421525839957563</v>
+        <v>0.1458349705472149</v>
       </c>
       <c r="H82" t="n">
-        <v>0.007869757529899884</v>
+        <v>0.00753015972903761</v>
       </c>
       <c r="I82" t="n">
-        <v>0.008286968450093721</v>
+        <v>0.007430239238475276</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01020451205039729</v>
+        <v>0.03661862338922089</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1421525839957563</v>
+        <v>0.1458349705472149</v>
       </c>
       <c r="L82" t="n">
-        <v>0.01178712021778165</v>
+        <v>0.01430350079858722</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01940663453629241</v>
+        <v>0.07909199036275956</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1765813030768814</v>
+        <v>0.04798235069715161</v>
       </c>
       <c r="O82" t="n">
-        <v>0.007276375579256391</v>
+        <v>0.006866349562674401</v>
       </c>
       <c r="P82" t="n">
-        <v>0.1765813030768814</v>
+        <v>0.1458349705472149</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -5544,60 +5544,60 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69121.fa</t>
+          <t>even_MAG-GUT68023.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02759978033210639</v>
+        <v>0.03802987893081823</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09239128526689264</v>
+        <v>0.1500192141081275</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00653061802010804</v>
+        <v>0.006979906239562544</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09239128526689264</v>
+        <v>0.1500192141081275</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09239128526689264</v>
+        <v>0.1500192141081275</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09239128526689264</v>
+        <v>0.1500192141081275</v>
       </c>
       <c r="H83" t="n">
-        <v>0.007124691401728102</v>
+        <v>0.007671417496657365</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0306158592296855</v>
+        <v>0.00773306516006562</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0092716354703994</v>
+        <v>0.03195587041739156</v>
       </c>
       <c r="K83" t="n">
-        <v>0.09239128526689264</v>
+        <v>0.1500192141081275</v>
       </c>
       <c r="L83" t="n">
-        <v>0.01097978780501543</v>
+        <v>0.01288189072586807</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02215416264211531</v>
+        <v>0.06191312538489725</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4172360750861023</v>
+        <v>0.07575878558173127</v>
       </c>
       <c r="O83" t="n">
-        <v>0.006530963678276195</v>
+        <v>0.006979989522370562</v>
       </c>
       <c r="P83" t="n">
-        <v>0.4172360750861023</v>
+        <v>0.1500192141081275</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -5606,60 +5606,60 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69224.fa</t>
+          <t>even_MAG-GUT68157.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.03533511716739959</v>
+        <v>0.06753507316824646</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1385720291205132</v>
+        <v>0.1490501375986419</v>
       </c>
       <c r="D84" t="n">
-        <v>0.006812384065240891</v>
+        <v>0.006949756736811604</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1385720291205132</v>
+        <v>0.1490501375986419</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1385720291205132</v>
+        <v>0.1490501375986419</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1385720291205132</v>
+        <v>0.1490501375986419</v>
       </c>
       <c r="H84" t="n">
-        <v>0.007398431965613032</v>
+        <v>0.007628475985299397</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0468807308236101</v>
+        <v>0.007251937411969561</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01601254768980799</v>
+        <v>0.02992173238418689</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1385720291205132</v>
+        <v>0.1490501375986419</v>
       </c>
       <c r="L84" t="n">
-        <v>0.009509222812630355</v>
+        <v>0.01489338550737124</v>
       </c>
       <c r="M84" t="n">
-        <v>0.02752304902776069</v>
+        <v>0.07260988707640449</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1508559241202954</v>
+        <v>0.04100927636564971</v>
       </c>
       <c r="O84" t="n">
-        <v>0.006812446725075972</v>
+        <v>0.006949787370851243</v>
       </c>
       <c r="P84" t="n">
-        <v>0.1508559241202954</v>
+        <v>0.1490501375986419</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -5668,60 +5668,60 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69229.fa</t>
+          <t>even_MAG-GUT68189.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.03277303595949606</v>
+        <v>0.03318193722707877</v>
       </c>
       <c r="C85" t="n">
-        <v>0.09825410790306613</v>
+        <v>0.1089817646151811</v>
       </c>
       <c r="D85" t="n">
-        <v>0.006623852314947581</v>
+        <v>0.006894822371233083</v>
       </c>
       <c r="E85" t="n">
-        <v>0.09825410790306613</v>
+        <v>0.1089817646151811</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09825410790306613</v>
+        <v>0.1089817646151811</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09825410790306613</v>
+        <v>0.1089817646151811</v>
       </c>
       <c r="H85" t="n">
-        <v>0.007224044915990695</v>
+        <v>0.00753059340162402</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01466652491988615</v>
+        <v>0.01202980774459763</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01019362270920347</v>
+        <v>0.008254632196636842</v>
       </c>
       <c r="K85" t="n">
-        <v>0.09825410790306613</v>
+        <v>0.1089817646151811</v>
       </c>
       <c r="L85" t="n">
-        <v>0.009915580881508745</v>
+        <v>0.01180917227123895</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03883635699548691</v>
+        <v>0.02368316652474715</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3818722745813472</v>
+        <v>0.3448096164134446</v>
       </c>
       <c r="O85" t="n">
-        <v>0.006624167206802639</v>
+        <v>0.006897428773493705</v>
       </c>
       <c r="P85" t="n">
-        <v>0.3818722745813472</v>
+        <v>0.3448096164134446</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -5730,60 +5730,60 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69434.fa</t>
+          <t>even_MAG-GUT68190.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.04070924276518538</v>
+        <v>0.02899873085495245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1457076192157744</v>
+        <v>0.1177018882346728</v>
       </c>
       <c r="D86" t="n">
-        <v>0.007252395375239308</v>
+        <v>0.006924577778847079</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1457076192157744</v>
+        <v>0.1177018882346728</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1457076192157744</v>
+        <v>0.1177018882346728</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1457076192157744</v>
+        <v>0.1177018882346728</v>
       </c>
       <c r="H86" t="n">
-        <v>0.007846868444922009</v>
+        <v>0.007525063797917474</v>
       </c>
       <c r="I86" t="n">
-        <v>0.008539040582530862</v>
+        <v>0.01676795529238717</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01299198900917911</v>
+        <v>0.01061296074854291</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1457076192157744</v>
+        <v>0.1177018882346728</v>
       </c>
       <c r="L86" t="n">
-        <v>0.01039289079293881</v>
+        <v>0.01057167969923597</v>
       </c>
       <c r="M86" t="n">
-        <v>0.02212125776718328</v>
+        <v>0.02202676746417795</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1543556827513251</v>
+        <v>0.3011378447182688</v>
       </c>
       <c r="O86" t="n">
-        <v>0.007252536432624185</v>
+        <v>0.006924978472306336</v>
       </c>
       <c r="P86" t="n">
-        <v>0.1543556827513251</v>
+        <v>0.3011378447182688</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -5792,60 +5792,60 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69447.fa</t>
+          <t>even_MAG-GUT68197.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05442726002261203</v>
+        <v>0.07335519056738174</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1420940579687496</v>
+        <v>0.147534215355971</v>
       </c>
       <c r="D87" t="n">
-        <v>0.007115466918339074</v>
+        <v>0.006917000618719848</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1420940579687496</v>
+        <v>0.147534215355971</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1420940579687496</v>
+        <v>0.147534215355971</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1420940579687496</v>
+        <v>0.147534215355971</v>
       </c>
       <c r="H87" t="n">
-        <v>0.007701129781472172</v>
+        <v>0.007580416230984985</v>
       </c>
       <c r="I87" t="n">
-        <v>0.007603605494583067</v>
+        <v>0.007385051116648294</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01452115238581162</v>
+        <v>0.05352018477235362</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1420940579687496</v>
+        <v>0.147534215355971</v>
       </c>
       <c r="L87" t="n">
-        <v>0.01123736617835973</v>
+        <v>0.01196731311191159</v>
       </c>
       <c r="M87" t="n">
-        <v>0.02868922130706252</v>
+        <v>0.05234423805021202</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1511189378131102</v>
+        <v>0.04234249791830669</v>
       </c>
       <c r="O87" t="n">
-        <v>0.007115570254901433</v>
+        <v>0.006917030833626585</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1511189378131102</v>
+        <v>0.147534215355971</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -5854,60 +5854,60 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74324.fa</t>
+          <t>even_MAG-GUT68475.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0490747491935303</v>
+        <v>0.05047991837603969</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1497174508007094</v>
+        <v>0.1405997515279171</v>
       </c>
       <c r="D88" t="n">
-        <v>0.007001529923039124</v>
+        <v>0.00678125037889292</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1497174508007094</v>
+        <v>0.1405997515279171</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1497174508007094</v>
+        <v>0.1405997515279171</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1497174508007094</v>
+        <v>0.1405997515279171</v>
       </c>
       <c r="H88" t="n">
-        <v>0.007649913395556572</v>
+        <v>0.007446707321659707</v>
       </c>
       <c r="I88" t="n">
-        <v>0.007612404067696651</v>
+        <v>0.007093642695238038</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02324972641897135</v>
+        <v>0.04510013825565522</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1497174508007094</v>
+        <v>0.1405997515279171</v>
       </c>
       <c r="L88" t="n">
-        <v>0.01289450138466395</v>
+        <v>0.01367278374964008</v>
       </c>
       <c r="M88" t="n">
-        <v>0.06957517366626469</v>
+        <v>0.09106396881807653</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06735316867592261</v>
+        <v>0.06858151567751443</v>
       </c>
       <c r="O88" t="n">
-        <v>0.007001579270807848</v>
+        <v>0.006781317087697933</v>
       </c>
       <c r="P88" t="n">
-        <v>0.1497174508007094</v>
+        <v>0.1405997515279171</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -5916,60 +5916,60 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74347.fa</t>
+          <t>even_MAG-GUT68642.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.03704563589055731</v>
+        <v>0.03470356348165098</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1208194503549092</v>
+        <v>0.09566531241175935</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006587520574966162</v>
+        <v>0.006721785904415922</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1208194503549092</v>
+        <v>0.09566531241175935</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1208194503549092</v>
+        <v>0.09566531241175935</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1208194503549092</v>
+        <v>0.09566531241175935</v>
       </c>
       <c r="H89" t="n">
-        <v>0.007271789155426019</v>
+        <v>0.007317507570015806</v>
       </c>
       <c r="I89" t="n">
-        <v>0.006874091325270076</v>
+        <v>0.01261305924194303</v>
       </c>
       <c r="J89" t="n">
-        <v>0.07313117883695668</v>
+        <v>0.008605797325063058</v>
       </c>
       <c r="K89" t="n">
-        <v>0.1208194503549092</v>
+        <v>0.09566531241175935</v>
       </c>
       <c r="L89" t="n">
-        <v>0.01418026703188729</v>
+        <v>0.0103495560348418</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2012751112580563</v>
+        <v>0.0250710420382403</v>
       </c>
       <c r="N89" t="n">
-        <v>0.04294960665866152</v>
+        <v>0.4095691148661584</v>
       </c>
       <c r="O89" t="n">
-        <v>0.006587547493672942</v>
+        <v>0.00672201147887386</v>
       </c>
       <c r="P89" t="n">
-        <v>0.2012751112580563</v>
+        <v>0.4095691148661584</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -5978,60 +5978,60 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7772.fa</t>
+          <t>even_MAG-GUT68659.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.04782489519754395</v>
+        <v>0.04071369875482775</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1336403813305022</v>
+        <v>0.1467966393107615</v>
       </c>
       <c r="D90" t="n">
-        <v>0.006768693308248573</v>
+        <v>0.006916936144695549</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1336403813305022</v>
+        <v>0.1467966393107615</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1336403813305022</v>
+        <v>0.1467966393107615</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1336403813305022</v>
+        <v>0.1467966393107615</v>
       </c>
       <c r="H90" t="n">
-        <v>0.007440444607612439</v>
+        <v>0.007612076861731247</v>
       </c>
       <c r="I90" t="n">
-        <v>0.007404853466784478</v>
+        <v>0.007478983248203296</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02943928236175896</v>
+        <v>0.02969349795725389</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1336403813305022</v>
+        <v>0.1467966393107615</v>
       </c>
       <c r="L90" t="n">
-        <v>0.01174031049310504</v>
+        <v>0.01426725557370524</v>
       </c>
       <c r="M90" t="n">
-        <v>0.08241146190827581</v>
+        <v>0.07254542237517619</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1319993109084041</v>
+        <v>0.07987169230553834</v>
       </c>
       <c r="O90" t="n">
-        <v>0.006768841095755838</v>
+        <v>0.006917240225060863</v>
       </c>
       <c r="P90" t="n">
-        <v>0.1336403813305022</v>
+        <v>0.1467966393107615</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -6040,60 +6040,60 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80568.fa</t>
+          <t>even_MAG-GUT68697.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.04921536382365965</v>
+        <v>0.04429147753825593</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1465883366112551</v>
+        <v>0.1432477546749825</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006867072251788753</v>
+        <v>0.007010359957066499</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1465883366112551</v>
+        <v>0.1432477546749825</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1465883366112551</v>
+        <v>0.1432477546749825</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1465883366112551</v>
+        <v>0.1432477546749825</v>
       </c>
       <c r="H91" t="n">
-        <v>0.00754381347414546</v>
+        <v>0.007575337524950274</v>
       </c>
       <c r="I91" t="n">
-        <v>0.007361772964168383</v>
+        <v>0.01618733061560658</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05262239067767899</v>
+        <v>0.01722950891285109</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1465883366112551</v>
+        <v>0.1432477546749825</v>
       </c>
       <c r="L91" t="n">
-        <v>0.01521728982280325</v>
+        <v>0.009775356812788648</v>
       </c>
       <c r="M91" t="n">
-        <v>0.08185284121367385</v>
+        <v>0.02448258959218844</v>
       </c>
       <c r="N91" t="n">
-        <v>0.03951068056296948</v>
+        <v>0.1501988784171854</v>
       </c>
       <c r="O91" t="n">
-        <v>0.006867092152836788</v>
+        <v>0.007010387254194542</v>
       </c>
       <c r="P91" t="n">
-        <v>0.1465883366112551</v>
+        <v>0.1501988784171854</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -6102,122 +6102,122 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81959.fa</t>
+          <t>even_MAG-GUT68968.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.04867203840984581</v>
+        <v>0.05667306870866792</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1409006702286497</v>
+        <v>0.04642700686880955</v>
       </c>
       <c r="D92" t="n">
-        <v>0.006835089771091233</v>
+        <v>0.005425807854534608</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1409006702286497</v>
+        <v>0.04642700686880955</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1409006702286497</v>
+        <v>0.04642700686880955</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1409006702286497</v>
+        <v>0.04642700686880955</v>
       </c>
       <c r="H92" t="n">
-        <v>0.007534015169491225</v>
+        <v>0.006018459567525247</v>
       </c>
       <c r="I92" t="n">
-        <v>0.007321795438637072</v>
+        <v>0.008093602556143612</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05390744225038962</v>
+        <v>0.006390112728004122</v>
       </c>
       <c r="K92" t="n">
-        <v>0.1409006702286497</v>
+        <v>0.04642700686880955</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01345781369432805</v>
+        <v>0.01353112349718837</v>
       </c>
       <c r="M92" t="n">
-        <v>0.1164471194598255</v>
+        <v>0.0436856002454323</v>
       </c>
       <c r="N92" t="n">
-        <v>0.03448621272201446</v>
+        <v>0.6226201744708232</v>
       </c>
       <c r="O92" t="n">
-        <v>0.006835121941128892</v>
+        <v>0.005427016027633013</v>
       </c>
       <c r="P92" t="n">
-        <v>0.1409006702286497</v>
+        <v>0.6226201744708232</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT85070.fa</t>
+          <t>even_MAG-GUT69048.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.106926029889763</v>
+        <v>0.04170281919413905</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09029703500667262</v>
+        <v>0.1530391515970639</v>
       </c>
       <c r="D93" t="n">
-        <v>0.006569307947791433</v>
+        <v>0.007005489256816429</v>
       </c>
       <c r="E93" t="n">
-        <v>0.09029703500667262</v>
+        <v>0.1530391515970639</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09029703500667262</v>
+        <v>0.1530391515970639</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09029703500667262</v>
+        <v>0.1530391515970639</v>
       </c>
       <c r="H93" t="n">
-        <v>0.007156016320858473</v>
+        <v>0.007668127150592292</v>
       </c>
       <c r="I93" t="n">
-        <v>0.006827638627830833</v>
+        <v>0.00754297182289788</v>
       </c>
       <c r="J93" t="n">
-        <v>0.007187221152990964</v>
+        <v>0.04066325449902355</v>
       </c>
       <c r="K93" t="n">
-        <v>0.09029703500667262</v>
+        <v>0.1530391515970639</v>
       </c>
       <c r="L93" t="n">
-        <v>0.01691679525792093</v>
+        <v>0.01322872076065117</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02263475601077261</v>
+        <v>0.05110776038738588</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3677272668851398</v>
+        <v>0.05887955670696322</v>
       </c>
       <c r="O93" t="n">
-        <v>0.006569792873568793</v>
+        <v>0.007005542236211041</v>
       </c>
       <c r="P93" t="n">
-        <v>0.3677272668851398</v>
+        <v>0.1530391515970639</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -6226,60 +6226,60 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86606.fa</t>
+          <t>even_MAG-GUT69064.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.03846866779553262</v>
+        <v>0.05562326297893051</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1293071123031861</v>
+        <v>0.1525442554234473</v>
       </c>
       <c r="D94" t="n">
-        <v>0.006725927847950684</v>
+        <v>0.007125741040446592</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1293071123031861</v>
+        <v>0.1525442554234473</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1293071123031861</v>
+        <v>0.1525442554234473</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1293071123031861</v>
+        <v>0.1525442554234473</v>
       </c>
       <c r="H94" t="n">
-        <v>0.007420041873425238</v>
+        <v>0.007701993544580799</v>
       </c>
       <c r="I94" t="n">
-        <v>0.007289486128875864</v>
+        <v>0.009057563775770629</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03717024063786701</v>
+        <v>0.01839909326577009</v>
       </c>
       <c r="K94" t="n">
-        <v>0.1293071123031861</v>
+        <v>0.1525442554234473</v>
       </c>
       <c r="L94" t="n">
-        <v>0.01458849067271627</v>
+        <v>0.01051939786539084</v>
       </c>
       <c r="M94" t="n">
-        <v>0.1869798977021002</v>
+        <v>0.03657541450631241</v>
       </c>
       <c r="N94" t="n">
-        <v>0.04809570281544151</v>
+        <v>0.08515049232623424</v>
       </c>
       <c r="O94" t="n">
-        <v>0.006725983010160396</v>
+        <v>0.007125763579327446</v>
       </c>
       <c r="P94" t="n">
-        <v>0.1869798977021002</v>
+        <v>0.1525442554234473</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -6288,60 +6288,60 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88052.fa</t>
+          <t>even_MAG-GUT69117.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.04873912539029862</v>
+        <v>0.04054823019145332</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1490757480880337</v>
+        <v>0.1421525839957563</v>
       </c>
       <c r="D95" t="n">
-        <v>0.006975986182843744</v>
+        <v>0.007276178389162172</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1490757480880337</v>
+        <v>0.1421525839957563</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1490757480880337</v>
+        <v>0.1421525839957563</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1490757480880337</v>
+        <v>0.1421525839957563</v>
       </c>
       <c r="H95" t="n">
-        <v>0.007659932367776272</v>
+        <v>0.007869757529899884</v>
       </c>
       <c r="I95" t="n">
-        <v>0.007543254124725031</v>
+        <v>0.008286968450093721</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06528138144675416</v>
+        <v>0.01020451205039729</v>
       </c>
       <c r="K95" t="n">
-        <v>0.1490757480880337</v>
+        <v>0.1421525839957563</v>
       </c>
       <c r="L95" t="n">
-        <v>0.01316192882994741</v>
+        <v>0.01178712021778165</v>
       </c>
       <c r="M95" t="n">
-        <v>0.07298305252567859</v>
+        <v>0.01940663453629241</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02530059908482788</v>
+        <v>0.1765813030768814</v>
       </c>
       <c r="O95" t="n">
-        <v>0.006975999606979791</v>
+        <v>0.007276375579256391</v>
       </c>
       <c r="P95" t="n">
-        <v>0.1490757480880337</v>
+        <v>0.1765813030768814</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -6350,60 +6350,60 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88444.fa</t>
+          <t>even_MAG-GUT69121.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.08350845780314178</v>
+        <v>0.02759978033210639</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1243651479966502</v>
+        <v>0.09239128526689264</v>
       </c>
       <c r="D96" t="n">
-        <v>0.006820938890968965</v>
+        <v>0.00653061802010804</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1243651479966502</v>
+        <v>0.09239128526689264</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1243651479966502</v>
+        <v>0.09239128526689264</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1243651479966502</v>
+        <v>0.09239128526689264</v>
       </c>
       <c r="H96" t="n">
-        <v>0.007424339699855224</v>
+        <v>0.007124691401728102</v>
       </c>
       <c r="I96" t="n">
-        <v>0.007320151626779915</v>
+        <v>0.0306158592296855</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01044294855426136</v>
+        <v>0.0092716354703994</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1243651479966502</v>
+        <v>0.09239128526689264</v>
       </c>
       <c r="L96" t="n">
-        <v>0.01649959823429947</v>
+        <v>0.01097978780501543</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04170651988990597</v>
+        <v>0.02215416264211531</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1976298920805697</v>
+        <v>0.4172360750861023</v>
       </c>
       <c r="O96" t="n">
-        <v>0.006821413236966798</v>
+        <v>0.006530963678276195</v>
       </c>
       <c r="P96" t="n">
-        <v>0.1976298920805697</v>
+        <v>0.4172360750861023</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -6412,60 +6412,60 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9016.fa</t>
+          <t>even_MAG-GUT69224.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1228417269554785</v>
+        <v>0.03533511716739959</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1033912026208871</v>
+        <v>0.1385720291205132</v>
       </c>
       <c r="D97" t="n">
-        <v>0.006652720119642142</v>
+        <v>0.006812384065240891</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1033912026208871</v>
+        <v>0.1385720291205132</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1033912026208871</v>
+        <v>0.1385720291205132</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1033912026208871</v>
+        <v>0.1385720291205132</v>
       </c>
       <c r="H97" t="n">
-        <v>0.007240067153330511</v>
+        <v>0.007398431965613032</v>
       </c>
       <c r="I97" t="n">
-        <v>0.006929127347544848</v>
+        <v>0.0468807308236101</v>
       </c>
       <c r="J97" t="n">
-        <v>0.007465810421026593</v>
+        <v>0.01601254768980799</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1033912026208871</v>
+        <v>0.1385720291205132</v>
       </c>
       <c r="L97" t="n">
-        <v>0.01836820210643705</v>
+        <v>0.009509222812630355</v>
       </c>
       <c r="M97" t="n">
-        <v>0.03104021847166464</v>
+        <v>0.02752304902776069</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2758529651196716</v>
+        <v>0.1508559241202954</v>
       </c>
       <c r="O97" t="n">
-        <v>0.006653149200768696</v>
+        <v>0.006812446725075972</v>
       </c>
       <c r="P97" t="n">
-        <v>0.2758529651196716</v>
+        <v>0.1508559241202954</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -6474,122 +6474,122 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91633.fa</t>
+          <t>even_MAG-GUT69229.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.003933649032136815</v>
+        <v>0.03277303595949606</v>
       </c>
       <c r="C98" t="n">
-        <v>2.221732158409359e-14</v>
+        <v>0.09825410790306613</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9113590936404031</v>
+        <v>0.006623852314947581</v>
       </c>
       <c r="E98" t="n">
-        <v>2.221732158409359e-14</v>
+        <v>0.09825410790306613</v>
       </c>
       <c r="F98" t="n">
-        <v>2.221732158409359e-14</v>
+        <v>0.09825410790306613</v>
       </c>
       <c r="G98" t="n">
-        <v>2.221732158409359e-14</v>
+        <v>0.09825410790306613</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0004328706222119742</v>
+        <v>0.007224044915990695</v>
       </c>
       <c r="I98" t="n">
-        <v>0.004171841448813478</v>
+        <v>0.01466652491988615</v>
       </c>
       <c r="J98" t="n">
-        <v>0.001312644651232478</v>
+        <v>0.01019362270920347</v>
       </c>
       <c r="K98" t="n">
-        <v>2.221732158409359e-14</v>
+        <v>0.09825410790306613</v>
       </c>
       <c r="L98" t="n">
-        <v>0.006310713296337865</v>
+        <v>0.009915580881508745</v>
       </c>
       <c r="M98" t="n">
-        <v>0.00322088643049536</v>
+        <v>0.03883635699548691</v>
       </c>
       <c r="N98" t="n">
-        <v>0.06779790494780273</v>
+        <v>0.3818722745813472</v>
       </c>
       <c r="O98" t="n">
-        <v>0.001460395930455029</v>
+        <v>0.006624167206802639</v>
       </c>
       <c r="P98" t="n">
-        <v>0.9113590936404031</v>
+        <v>0.3818722745813472</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium animalis</t>
+          <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium animalis</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91733.fa</t>
+          <t>even_MAG-GUT69253.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03294096048753122</v>
+        <v>0.1200376027119222</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1293137277285006</v>
       </c>
       <c r="D99" t="n">
-        <v>0.007017917419366525</v>
+        <v>0.006983817574069933</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1293137277285006</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1293137277285006</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1293137277285006</v>
       </c>
       <c r="H99" t="n">
-        <v>0.007603831321604897</v>
+        <v>0.007556402080643685</v>
       </c>
       <c r="I99" t="n">
-        <v>0.01133646965879413</v>
+        <v>0.00733508722602273</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0146261712432326</v>
+        <v>0.0101444090551835</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1293137277285006</v>
       </c>
       <c r="L99" t="n">
-        <v>0.009965125335790902</v>
+        <v>0.01553948308336362</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02311016183921118</v>
+        <v>0.02153092958573916</v>
       </c>
       <c r="N99" t="n">
-        <v>0.249436189931924</v>
+        <v>0.1573197764674667</v>
       </c>
       <c r="O99" t="n">
-        <v>0.00701804417706751</v>
+        <v>0.006983853573085277</v>
       </c>
       <c r="P99" t="n">
-        <v>0.249436189931924</v>
+        <v>0.1573197764674667</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -6598,60 +6598,60 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91735.fa</t>
+          <t>even_MAG-GUT69434.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03294096048753122</v>
+        <v>0.04070924276518538</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1457076192157744</v>
       </c>
       <c r="D100" t="n">
-        <v>0.007017917419366525</v>
+        <v>0.007252395375239308</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1457076192157744</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1457076192157744</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1457076192157744</v>
       </c>
       <c r="H100" t="n">
-        <v>0.007603831321604897</v>
+        <v>0.007846868444922009</v>
       </c>
       <c r="I100" t="n">
-        <v>0.01133646965879413</v>
+        <v>0.008539040582530862</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0146261712432326</v>
+        <v>0.01299198900917911</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1273890257170954</v>
+        <v>0.1457076192157744</v>
       </c>
       <c r="L100" t="n">
-        <v>0.009965125335790902</v>
+        <v>0.01039289079293881</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02311016183921118</v>
+        <v>0.02212125776718328</v>
       </c>
       <c r="N100" t="n">
-        <v>0.249436189931924</v>
+        <v>0.1543556827513251</v>
       </c>
       <c r="O100" t="n">
-        <v>0.00701804417706751</v>
+        <v>0.007252536432624185</v>
       </c>
       <c r="P100" t="n">
-        <v>0.249436189931924</v>
+        <v>0.1543556827513251</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -6660,60 +6660,60 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91947.fa</t>
+          <t>even_MAG-GUT69447.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.02887106362823022</v>
+        <v>0.05442726002261203</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06399746153507264</v>
+        <v>0.1420940579687496</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005753486081690995</v>
+        <v>0.007115466918339074</v>
       </c>
       <c r="E101" t="n">
-        <v>0.06399746153507264</v>
+        <v>0.1420940579687496</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06399746153507264</v>
+        <v>0.1420940579687496</v>
       </c>
       <c r="G101" t="n">
-        <v>0.06399746153507264</v>
+        <v>0.1420940579687496</v>
       </c>
       <c r="H101" t="n">
-        <v>0.00634119923542236</v>
+        <v>0.007701129781472172</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1301600053892784</v>
+        <v>0.007603605494583067</v>
       </c>
       <c r="J101" t="n">
-        <v>0.007041300427271743</v>
+        <v>0.01452115238581162</v>
       </c>
       <c r="K101" t="n">
-        <v>0.06399746153507264</v>
+        <v>0.1420940579687496</v>
       </c>
       <c r="L101" t="n">
-        <v>0.009736712853372246</v>
+        <v>0.01123736617835973</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0315527643481353</v>
+        <v>0.02868922130706252</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4548025134209214</v>
+        <v>0.1511189378131102</v>
       </c>
       <c r="O101" t="n">
-        <v>0.00575364694031426</v>
+        <v>0.007115570254901433</v>
       </c>
       <c r="P101" t="n">
-        <v>0.4548025134209214</v>
+        <v>0.1511189378131102</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -6722,60 +6722,60 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92065.fa</t>
+          <t>even_MAG-GUT74324.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.0281623344039114</v>
+        <v>0.0490747491935303</v>
       </c>
       <c r="C102" t="n">
-        <v>0.08101637769651608</v>
+        <v>0.1497174508007094</v>
       </c>
       <c r="D102" t="n">
-        <v>0.006601536949355959</v>
+        <v>0.007001529923039124</v>
       </c>
       <c r="E102" t="n">
-        <v>0.08101637769651608</v>
+        <v>0.1497174508007094</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08101637769651608</v>
+        <v>0.1497174508007094</v>
       </c>
       <c r="G102" t="n">
-        <v>0.08101637769651608</v>
+        <v>0.1497174508007094</v>
       </c>
       <c r="H102" t="n">
-        <v>0.007212858839576371</v>
+        <v>0.007649913395556572</v>
       </c>
       <c r="I102" t="n">
-        <v>0.01040465244652261</v>
+        <v>0.007612404067696651</v>
       </c>
       <c r="J102" t="n">
-        <v>0.008267629727747534</v>
+        <v>0.02324972641897135</v>
       </c>
       <c r="K102" t="n">
-        <v>0.08101637769651608</v>
+        <v>0.1497174508007094</v>
       </c>
       <c r="L102" t="n">
-        <v>0.01146830197170512</v>
+        <v>0.01289450138466395</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02100316505839156</v>
+        <v>0.06957517366626469</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4951955772385491</v>
+        <v>0.06735316867592261</v>
       </c>
       <c r="O102" t="n">
-        <v>0.006602054881660129</v>
+        <v>0.007001579270807848</v>
       </c>
       <c r="P102" t="n">
-        <v>0.4951955772385491</v>
+        <v>0.1497174508007094</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -6784,69 +6784,813 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium angulatum</t>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT7772.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.04782489519754395</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.1336403813305022</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.006768693308248573</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1336403813305022</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1336403813305022</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.1336403813305022</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.007440444607612439</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.007404853466784478</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02943928236175896</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.1336403813305022</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.01174031049310504</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.08241146190827581</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.1319993109084041</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.006768841095755838</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.1336403813305022</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80568.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.04921536382365965</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.1465883366112551</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.006867072251788753</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1465883366112551</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1465883366112551</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.1465883366112551</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.00754381347414546</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.007361772964168383</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.05262239067767899</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.1465883366112551</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.01521728982280325</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.08185284121367385</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.03951068056296948</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.006867092152836788</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.1465883366112551</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85070.fa</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.106926029889763</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.09029703500667262</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.006569307947791433</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.09029703500667262</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.09029703500667262</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.09029703500667262</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.007156016320858473</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.006827638627830833</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.007187221152990964</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.09029703500667262</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.01691679525792093</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.02263475601077261</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.3677272668851398</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.006569792873568793</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.3677272668851398</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86606.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.03846866779553262</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.1293071123031861</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.006725927847950684</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1293071123031861</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1293071123031861</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.1293071123031861</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.007420041873425238</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.007289486128875864</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03717024063786701</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.1293071123031861</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.01458849067271627</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.1869798977021002</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.04809570281544151</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.006725983010160396</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.1869798977021002</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88052.fa</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.04873912539029862</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.1490757480880337</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.006975986182843744</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1490757480880337</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1490757480880337</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.1490757480880337</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.007659932367776272</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.007543254124725031</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.06528138144675416</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.1490757480880337</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.01316192882994741</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.07298305252567859</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.02530059908482788</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.006975999606979791</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.1490757480880337</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88444.fa</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.08350845780314178</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1243651479966502</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.006820938890968965</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1243651479966502</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1243651479966502</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.1243651479966502</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.007424339699855224</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.007320151626779915</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.01044294855426136</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.1243651479966502</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.01649959823429947</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.04170651988990597</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.1976298920805697</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.006821413236966798</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.1976298920805697</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9016.fa</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.1228417269554785</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1033912026208871</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.006652720119642142</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1033912026208871</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1033912026208871</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.1033912026208871</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.007240067153330511</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.006929127347544848</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.007465810421026593</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.1033912026208871</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.01836820210643705</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.03104021847166464</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.2758529651196716</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.006653149200768696</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.2758529651196716</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91633.fa</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.003933649032136815</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.221732158409359e-14</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9113590936404031</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.221732158409359e-14</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.221732158409359e-14</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.221732158409359e-14</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0004328706222119742</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.004171841448813478</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.001312644651232478</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2.221732158409359e-14</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.006310713296337865</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.00322088643049536</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.06779790494780273</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.001460395930455029</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.9113590936404031</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium animalis</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium animalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91733.fa</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.03294096048753122</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.007017917419366525</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.007603831321604897</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.01133646965879413</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0146261712432326</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.009965125335790902</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.02311016183921118</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.249436189931924</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.00701804417706751</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.249436189931924</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91735.fa</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.03294096048753122</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.007017917419366525</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.007603831321604897</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.01133646965879413</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0146261712432326</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.1273890257170954</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.009965125335790902</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.02311016183921118</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.249436189931924</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.00701804417706751</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.249436189931924</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91947.fa</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.02887106362823022</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.06399746153507264</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.005753486081690995</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.06399746153507264</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.06399746153507264</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.06399746153507264</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.00634119923542236</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.1301600053892784</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.007041300427271743</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.06399746153507264</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.009736712853372246</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.0315527643481353</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.4548025134209214</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.00575364694031426</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.4548025134209214</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92065.fa</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0281623344039114</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.08101637769651608</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.006601536949355959</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.08101637769651608</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.08101637769651608</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.08101637769651608</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.007212858839576371</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.01040465244652261</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.008267629727747534</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.08101637769651608</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.01146830197170512</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.02100316505839156</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.4951955772385491</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.006602054881660129</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.4951955772385491</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9523.fa</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B115" t="n">
         <v>0.04003849118177207</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C115" t="n">
         <v>0.1435206710955762</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D115" t="n">
         <v>0.006870336399397197</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E115" t="n">
         <v>0.1435206710955762</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F115" t="n">
         <v>0.1435206710955762</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G115" t="n">
         <v>0.1435206710955762</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H115" t="n">
         <v>0.007563361827141311</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I115" t="n">
         <v>0.007389795319330881</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J115" t="n">
         <v>0.0652929638960192</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K115" t="n">
         <v>0.1435206710955762</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L115" t="n">
         <v>0.01386241218422805</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M115" t="n">
         <v>0.1010387749047932</v>
       </c>
-      <c r="N103" t="n">
+      <c r="N115" t="n">
         <v>0.03347015247713886</v>
       </c>
-      <c r="O103" t="n">
+      <c r="O115" t="n">
         <v>0.0068703563322982</v>
       </c>
-      <c r="P103" t="n">
+      <c r="P115" t="n">
         <v>0.1435206710955762</v>
       </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>s__Bifidobacterium angulatum</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>s__Bifidobacterium angulatum</t>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Bifidobacterium.xlsx
+++ b/outputs-HGR-r202/g__Bifidobacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -577,6 +582,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -634,6 +644,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -691,6 +706,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -748,6 +768,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -805,6 +830,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -862,6 +892,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -919,6 +954,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -976,6 +1016,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1033,6 +1078,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1090,6 +1140,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1147,6 +1202,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1204,6 +1264,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1261,6 +1326,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1318,6 +1388,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1375,6 +1450,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1432,6 +1512,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1489,6 +1574,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1546,6 +1636,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1603,6 +1698,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1660,6 +1760,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1717,6 +1822,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1774,6 +1884,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1831,6 +1946,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1888,6 +2008,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1945,6 +2070,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2002,6 +2132,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2059,6 +2194,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2116,6 +2256,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2173,6 +2318,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2230,6 +2380,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2287,6 +2442,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2344,6 +2504,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2401,6 +2566,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2458,6 +2628,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2515,6 +2690,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2572,6 +2752,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2629,6 +2814,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2686,6 +2876,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2743,6 +2938,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2800,6 +3000,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2857,6 +3062,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2914,6 +3124,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2971,6 +3186,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3028,6 +3248,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3085,6 +3310,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3142,6 +3372,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3199,6 +3434,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3256,6 +3496,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3313,6 +3558,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3370,6 +3620,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3427,6 +3682,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3484,6 +3744,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3541,6 +3806,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3598,6 +3868,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3655,6 +3930,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3712,6 +3992,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3769,6 +4054,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3826,6 +4116,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3883,6 +4178,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3940,6 +4240,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3997,6 +4302,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4054,6 +4364,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4111,6 +4426,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4168,6 +4488,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4225,6 +4550,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4282,6 +4612,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4339,6 +4674,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -4396,6 +4736,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -4453,6 +4798,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -4510,6 +4860,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -4567,6 +4922,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4624,6 +4984,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4681,6 +5046,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4738,6 +5108,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4795,6 +5170,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -4852,6 +5232,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4909,6 +5294,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4966,6 +5356,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -5023,6 +5418,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -5080,6 +5480,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5137,6 +5542,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -5194,6 +5604,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -5251,6 +5666,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -5308,6 +5728,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -5365,6 +5790,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -5422,6 +5852,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -5479,6 +5914,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -5536,6 +5976,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5593,6 +6038,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -5650,6 +6100,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -5707,6 +6162,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -5764,6 +6224,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -5821,6 +6286,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -5878,6 +6348,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -5935,6 +6410,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -5992,6 +6472,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -6049,6 +6534,11 @@
           <t>s__Bifidobacterium sp002742445</t>
         </is>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium sp002742445</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -6106,6 +6596,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -6163,6 +6658,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -6220,6 +6720,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -6277,6 +6782,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -6334,6 +6844,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -6391,6 +6906,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -6448,6 +6968,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -6505,6 +7030,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -6562,6 +7092,11 @@
           <t>s__Bifidobacterium angulatum</t>
         </is>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -6615,6 +7150,11 @@
         <v>0.1435206710955762</v>
       </c>
       <c r="Q108" t="inlineStr">
+        <is>
+          <t>s__Bifidobacterium angulatum</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
         <is>
           <t>s__Bifidobacterium angulatum</t>
         </is>

--- a/outputs-HGR-r202/g__Bifidobacterium.xlsx
+++ b/outputs-HGR-r202/g__Bifidobacterium.xlsx
@@ -4924,7 +4924,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>s__Bifidobacterium sp002742445</t>
+          <t>s__Bifidobacterium sp002742445(reject)</t>
         </is>
       </c>
     </row>
